--- a/data/activeStats.xlsx
+++ b/data/activeStats.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victornorris/Code/projects/gatsbyTraining/crashCourse/mlModels/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB82452-CC9F-494E-B7B5-997129C477D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="30000" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +82,12 @@
     <t>yrs</t>
   </si>
   <si>
+    <t>A.J. Brown</t>
+  </si>
+  <si>
+    <t>Andy Isabella</t>
+  </si>
+  <si>
     <t>Antonio Gandy-Golden</t>
   </si>
   <si>
@@ -106,9 +106,18 @@
     <t>Collin Johnson</t>
   </si>
   <si>
+    <t>D.K. Metcalf</t>
+  </si>
+  <si>
+    <t>Darius Slayton</t>
+  </si>
+  <si>
     <t>Darnell Mooney</t>
   </si>
   <si>
+    <t>Deebo Samuel</t>
+  </si>
+  <si>
     <t>Denzel Mims</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
     <t>Dezmon Patmon</t>
   </si>
   <si>
+    <t>Diontae Johnson</t>
+  </si>
+  <si>
     <t>Donovan Peoples-Jones</t>
   </si>
   <si>
@@ -127,9 +139,18 @@
     <t>Gabriel Davis</t>
   </si>
   <si>
+    <t>Gary Jennings Jr</t>
+  </si>
+  <si>
+    <t>Hakeem Butler</t>
+  </si>
+  <si>
     <t>Henry Ruggs III</t>
   </si>
   <si>
+    <t>Hunter Renfrow</t>
+  </si>
+  <si>
     <t>Isaiah Hodgins</t>
   </si>
   <si>
@@ -145,21 +166,36 @@
     <t>Jerry Jeudy</t>
   </si>
   <si>
+    <t>JJ Arcega-Whiteside</t>
+  </si>
+  <si>
     <t>Joe Reed</t>
   </si>
   <si>
     <t>John Hightower</t>
   </si>
   <si>
+    <t>John Ursua</t>
+  </si>
+  <si>
     <t>Justin Jefferson</t>
   </si>
   <si>
+    <t>Juwann Winfree</t>
+  </si>
+  <si>
     <t>K.J. Hill</t>
   </si>
   <si>
     <t>K.J. Osborn</t>
   </si>
   <si>
+    <t>KeeSean Johnson</t>
+  </si>
+  <si>
+    <t>Kelvin Harmon</t>
+  </si>
+  <si>
     <t>KJ Hamler</t>
   </si>
   <si>
@@ -169,104 +205,149 @@
     <t>Lynn Bowden Jr.</t>
   </si>
   <si>
+    <t>Marquise Brown</t>
+  </si>
+  <si>
+    <t>Mecole Hardman</t>
+  </si>
+  <si>
     <t>Michael Pittman Jr.</t>
   </si>
   <si>
+    <t>Miles Boykin</t>
+  </si>
+  <si>
+    <t>N'Keal Harry</t>
+  </si>
+  <si>
+    <t>Olabisi Johnson</t>
+  </si>
+  <si>
+    <t>Parris Campbell</t>
+  </si>
+  <si>
     <t>Quez Watkins</t>
   </si>
   <si>
     <t>Quintez Cephus</t>
   </si>
   <si>
+    <t>Riley Ridley</t>
+  </si>
+  <si>
+    <t>Scott Miller</t>
+  </si>
+  <si>
     <t>Tee Higgins</t>
   </si>
   <si>
+    <t>Terry Godwin</t>
+  </si>
+  <si>
+    <t>Terry McLaurin</t>
+  </si>
+  <si>
+    <t>Travis Fulgham</t>
+  </si>
+  <si>
     <t>Tyler Johnson</t>
   </si>
   <si>
     <t>Van Jefferson</t>
   </si>
   <si>
-    <t>Olabisi Johnson</t>
-  </si>
-  <si>
-    <t>Terry Godwin</t>
-  </si>
-  <si>
-    <t>John Ursua</t>
-  </si>
-  <si>
-    <t>Scott Miller</t>
-  </si>
-  <si>
-    <t>Kelvin Harmon</t>
-  </si>
-  <si>
-    <t>Juwann Winfree</t>
-  </si>
-  <si>
-    <t>Travis Fulgham</t>
-  </si>
-  <si>
-    <t>KeeSean Johnson</t>
-  </si>
-  <si>
-    <t>Darius Slayton</t>
-  </si>
-  <si>
-    <t>Hunter Renfrow</t>
-  </si>
-  <si>
-    <t>Riley Ridley</t>
-  </si>
-  <si>
-    <t>Gary Jennings Jr</t>
-  </si>
-  <si>
-    <t>Hakeem Butler</t>
-  </si>
-  <si>
-    <t>Miles Boykin</t>
-  </si>
-  <si>
-    <t>Terry McLaurin</t>
-  </si>
-  <si>
-    <t>Diontae Johnson</t>
-  </si>
-  <si>
-    <t>D.K. Metcalf</t>
-  </si>
-  <si>
-    <t>Andy Isabella</t>
-  </si>
-  <si>
-    <t>Parris Campbell</t>
-  </si>
-  <si>
-    <t>JJ Arcega-Whiteside</t>
-  </si>
-  <si>
-    <t>Mecole Hardman</t>
-  </si>
-  <si>
-    <t>A.J. Brown</t>
-  </si>
-  <si>
-    <t>Deebo Samuel</t>
-  </si>
-  <si>
-    <t>N'Keal Harry</t>
-  </si>
-  <si>
-    <t>Marquise Brown</t>
+    <t>J'Mon Moore</t>
+  </si>
+  <si>
+    <t>Jaleeel Scott</t>
+  </si>
+  <si>
+    <t>DaeSean Hamilton</t>
+  </si>
+  <si>
+    <t>Antonio Callaway</t>
+  </si>
+  <si>
+    <t>Keke Coutee</t>
+  </si>
+  <si>
+    <t>Tre'Quan Smith</t>
+  </si>
+  <si>
+    <t>Michael Gallup</t>
+  </si>
+  <si>
+    <t>DJ Chark</t>
+  </si>
+  <si>
+    <t>James Washington</t>
+  </si>
+  <si>
+    <t>Anthony Miller</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Dante Pettis</t>
+  </si>
+  <si>
+    <t>Courtland Sutton</t>
+  </si>
+  <si>
+    <t>Calvin Ridley</t>
+  </si>
+  <si>
+    <t>D.J. Moore</t>
+  </si>
+  <si>
+    <t>Trey Quinn</t>
+  </si>
+  <si>
+    <t>Auden Tate</t>
+  </si>
+  <si>
+    <t>Richie James</t>
+  </si>
+  <si>
+    <t>Marcel Ateman</t>
+  </si>
+  <si>
+    <t>Javon Wims</t>
+  </si>
+  <si>
+    <t>Braxton Berrios</t>
+  </si>
+  <si>
+    <t>Cedric Wilson</t>
+  </si>
+  <si>
+    <t>Equanimeous St. Brown</t>
+  </si>
+  <si>
+    <t>Russel Gage</t>
+  </si>
+  <si>
+    <t>Ray-Ray McCloud</t>
+  </si>
+  <si>
+    <t>Deon Cain</t>
+  </si>
+  <si>
+    <t>Marquez Valdez-Scantling</t>
+  </si>
+  <si>
+    <t>Justin Watson</t>
+  </si>
+  <si>
+    <t>Allen Lazard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,21 +410,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -381,7 +454,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -415,7 +488,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -450,10 +522,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -626,16 +697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,9 +775,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>2019</v>
@@ -771,9 +840,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -785,7 +854,7 @@
         <v>175.26</v>
       </c>
       <c r="E3">
-        <v>85.275295999999997</v>
+        <v>85.275296</v>
       </c>
       <c r="F3">
         <v>231</v>
@@ -803,7 +872,7 @@
         <v>44</v>
       </c>
       <c r="K3">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="L3">
         <v>36.5</v>
@@ -818,7 +887,7 @@
         <v>6.95</v>
       </c>
       <c r="P3">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q3">
         <v>62</v>
@@ -842,9 +911,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -856,7 +925,7 @@
         <v>193.04</v>
       </c>
       <c r="E4">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F4">
         <v>150</v>
@@ -874,7 +943,7 @@
         <v>24</v>
       </c>
       <c r="K4">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L4">
         <v>36</v>
@@ -913,9 +982,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>2020</v>
@@ -927,7 +996,7 @@
         <v>182.88</v>
       </c>
       <c r="E5">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F5">
         <v>98</v>
@@ -969,9 +1038,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2020</v>
@@ -983,7 +1052,7 @@
         <v>190.5</v>
       </c>
       <c r="E6">
-        <v>44.235326029760003</v>
+        <v>44.23532602976</v>
       </c>
       <c r="F6">
         <v>234</v>
@@ -992,7 +1061,7 @@
         <v>3045</v>
       </c>
       <c r="H6">
-        <v>13.012820512820509</v>
+        <v>13.01282051282051</v>
       </c>
       <c r="I6">
         <v>22</v>
@@ -1025,9 +1094,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7">
         <v>2020</v>
@@ -1039,7 +1108,7 @@
         <v>187.96</v>
       </c>
       <c r="E7">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F7">
         <v>173</v>
@@ -1090,9 +1159,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8">
         <v>2020</v>
@@ -1104,7 +1173,7 @@
         <v>193.04</v>
       </c>
       <c r="E8">
-        <v>48.967477186431999</v>
+        <v>48.967477186432</v>
       </c>
       <c r="F8">
         <v>150</v>
@@ -1113,7 +1182,7 @@
         <v>2159</v>
       </c>
       <c r="H8">
-        <v>14.393333333333331</v>
+        <v>14.39333333333333</v>
       </c>
       <c r="I8">
         <v>19</v>
@@ -1155,9 +1224,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -1169,7 +1238,7 @@
         <v>198.12</v>
       </c>
       <c r="E9">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F9">
         <v>188</v>
@@ -1178,7 +1247,7 @@
         <v>2623</v>
       </c>
       <c r="H9">
-        <v>13.952127659574471</v>
+        <v>13.95212765957447</v>
       </c>
       <c r="I9">
         <v>15</v>
@@ -1214,9 +1283,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>2019</v>
@@ -1237,7 +1306,7 @@
         <v>1228</v>
       </c>
       <c r="H10">
-        <v>18.328358208955219</v>
+        <v>18.32835820895522</v>
       </c>
       <c r="I10">
         <v>14</v>
@@ -1285,9 +1354,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>2019</v>
@@ -1308,7 +1377,7 @@
         <v>1605</v>
       </c>
       <c r="H11">
-        <v>20.316455696202532</v>
+        <v>20.31645569620253</v>
       </c>
       <c r="I11">
         <v>11</v>
@@ -1317,7 +1386,7 @@
         <v>29</v>
       </c>
       <c r="K11">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L11">
         <v>40.5</v>
@@ -1332,7 +1401,7 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q11">
         <v>171</v>
@@ -1356,9 +1425,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12">
         <v>2020</v>
@@ -1370,7 +1439,7 @@
         <v>180.34</v>
       </c>
       <c r="E12">
-        <v>35.594006526271997</v>
+        <v>35.594006526272</v>
       </c>
       <c r="F12">
         <v>154</v>
@@ -1421,9 +1490,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -1435,7 +1504,7 @@
         <v>182.88</v>
       </c>
       <c r="E13">
-        <v>97.522279999999995</v>
+        <v>97.52227999999999</v>
       </c>
       <c r="F13">
         <v>148</v>
@@ -1453,7 +1522,7 @@
         <v>30</v>
       </c>
       <c r="K13">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L13">
         <v>39</v>
@@ -1468,7 +1537,7 @@
         <v>7.03</v>
       </c>
       <c r="P13">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="Q13">
         <v>36</v>
@@ -1492,9 +1561,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2020</v>
@@ -1506,7 +1575,7 @@
         <v>190.5</v>
       </c>
       <c r="E14">
-        <v>42.589360410048002</v>
+        <v>42.589360410048</v>
       </c>
       <c r="F14">
         <v>186</v>
@@ -1563,9 +1632,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>2020</v>
@@ -1577,7 +1646,7 @@
         <v>180.34</v>
       </c>
       <c r="E15">
-        <v>41.560631897728001</v>
+        <v>41.560631897728</v>
       </c>
       <c r="F15">
         <v>176</v>
@@ -1595,7 +1664,7 @@
         <v>45</v>
       </c>
       <c r="K15">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="L15">
         <v>35.5</v>
@@ -1631,9 +1700,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <v>2020</v>
@@ -1645,7 +1714,7 @@
         <v>193.04</v>
       </c>
       <c r="E16">
-        <v>46.292783054399997</v>
+        <v>46.2927830544</v>
       </c>
       <c r="F16">
         <v>156</v>
@@ -1663,7 +1732,7 @@
         <v>36</v>
       </c>
       <c r="K16">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L16">
         <v>36</v>
@@ -1702,9 +1771,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="B17">
         <v>2019</v>
@@ -1716,7 +1785,7 @@
         <v>177.8</v>
       </c>
       <c r="E17">
-        <v>83.007335999999995</v>
+        <v>83.007336</v>
       </c>
       <c r="F17">
         <v>135</v>
@@ -1725,7 +1794,7 @@
         <v>2235</v>
       </c>
       <c r="H17">
-        <v>16.555555555555561</v>
+        <v>16.55555555555556</v>
       </c>
       <c r="I17">
         <v>23</v>
@@ -1755,7 +1824,7 @@
         <v>66</v>
       </c>
       <c r="R17">
-        <v>69.599999999999994</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="S17">
         <v>7</v>
@@ -1773,9 +1842,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>2020</v>
@@ -1787,7 +1856,7 @@
         <v>187.96</v>
       </c>
       <c r="E18">
-        <v>41.972123302656001</v>
+        <v>41.972123302656</v>
       </c>
       <c r="F18">
         <v>103</v>
@@ -1805,7 +1874,7 @@
         <v>47</v>
       </c>
       <c r="K18">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L18">
         <v>44.5</v>
@@ -1817,7 +1886,7 @@
         <v>187</v>
       </c>
       <c r="R18">
-        <v>64.900000000000006</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="S18">
         <v>5.333333333333333</v>
@@ -1835,9 +1904,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>2020</v>
@@ -1849,7 +1918,7 @@
         <v>182.88</v>
       </c>
       <c r="E19">
-        <v>40.943394790336001</v>
+        <v>40.943394790336</v>
       </c>
       <c r="F19">
         <v>68</v>
@@ -1858,7 +1927,7 @@
         <v>996</v>
       </c>
       <c r="H19">
-        <v>14.647058823529409</v>
+        <v>14.64705882352941</v>
       </c>
       <c r="I19">
         <v>15</v>
@@ -1906,9 +1975,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>2020</v>
@@ -1920,7 +1989,7 @@
         <v>190.5</v>
       </c>
       <c r="E20">
-        <v>43.618088922368003</v>
+        <v>43.618088922368</v>
       </c>
       <c r="F20">
         <v>157</v>
@@ -1929,7 +1998,7 @@
         <v>2447</v>
       </c>
       <c r="H20">
-        <v>15.585987261146499</v>
+        <v>15.5859872611465</v>
       </c>
       <c r="I20">
         <v>23</v>
@@ -1977,9 +2046,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>2019</v>
@@ -1991,7 +2060,7 @@
         <v>185.42</v>
       </c>
       <c r="E21">
-        <v>97.975871999999995</v>
+        <v>97.975872</v>
       </c>
       <c r="F21">
         <v>168</v>
@@ -2024,7 +2093,7 @@
         <v>7.32</v>
       </c>
       <c r="P21">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q21">
         <v>120</v>
@@ -2048,9 +2117,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>2019</v>
@@ -2071,7 +2140,7 @@
         <v>2149</v>
       </c>
       <c r="H22">
-        <v>19.536363636363639</v>
+        <v>19.53636363636364</v>
       </c>
       <c r="I22">
         <v>18</v>
@@ -2080,7 +2149,7 @@
         <v>34</v>
       </c>
       <c r="K22">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L22">
         <v>36</v>
@@ -2113,9 +2182,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>2020</v>
@@ -2127,7 +2196,7 @@
         <v>182.88</v>
       </c>
       <c r="E23">
-        <v>39.091683468159999</v>
+        <v>39.09168346816</v>
       </c>
       <c r="F23">
         <v>98</v>
@@ -2136,7 +2205,7 @@
         <v>1716</v>
       </c>
       <c r="H23">
-        <v>17.510204081632651</v>
+        <v>17.51020408163265</v>
       </c>
       <c r="I23">
         <v>24</v>
@@ -2145,7 +2214,7 @@
         <v>40</v>
       </c>
       <c r="K23">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="L23">
         <v>42</v>
@@ -2157,7 +2226,7 @@
         <v>12</v>
       </c>
       <c r="R23">
-        <v>73.400000000000006</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="S23">
         <v>2.666666666666667</v>
@@ -2175,9 +2244,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>2019</v>
@@ -2189,7 +2258,7 @@
         <v>177.8</v>
       </c>
       <c r="E24">
-        <v>83.914519999999996</v>
+        <v>83.91452</v>
       </c>
       <c r="F24">
         <v>186</v>
@@ -2222,13 +2291,13 @@
         <v>6.8</v>
       </c>
       <c r="P24">
-        <v>4.1900000000000004</v>
+        <v>4.19</v>
       </c>
       <c r="Q24">
         <v>149</v>
       </c>
       <c r="R24">
-        <v>65.599999999999994</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="S24">
         <v>5</v>
@@ -2246,9 +2315,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>2020</v>
@@ -2260,7 +2329,7 @@
         <v>193.04</v>
       </c>
       <c r="E25">
-        <v>43.000851814976002</v>
+        <v>43.000851814976</v>
       </c>
       <c r="F25">
         <v>176</v>
@@ -2278,7 +2347,7 @@
         <v>34</v>
       </c>
       <c r="K25">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="L25">
         <v>36.5</v>
@@ -2299,7 +2368,7 @@
         <v>207</v>
       </c>
       <c r="R25">
-        <v>76.599999999999994</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="S25">
         <v>1</v>
@@ -2317,9 +2386,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B26">
         <v>2020</v>
@@ -2340,7 +2409,7 @@
         <v>2248</v>
       </c>
       <c r="H26">
-        <v>15.189189189189189</v>
+        <v>15.18918918918919</v>
       </c>
       <c r="I26">
         <v>22</v>
@@ -2388,9 +2457,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B27">
         <v>2020</v>
@@ -2402,7 +2471,7 @@
         <v>180.34</v>
       </c>
       <c r="E27">
-        <v>39.091683468159999</v>
+        <v>39.09168346816</v>
       </c>
       <c r="F27">
         <v>301</v>
@@ -2432,7 +2501,7 @@
         <v>7.27</v>
       </c>
       <c r="P27">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="Q27">
         <v>201</v>
@@ -2456,9 +2525,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B28">
         <v>2020</v>
@@ -2470,7 +2539,7 @@
         <v>190.5</v>
       </c>
       <c r="E28">
-        <v>43.618088922368003</v>
+        <v>43.618088922368</v>
       </c>
       <c r="F28">
         <v>146</v>
@@ -2518,9 +2587,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B29">
         <v>2020</v>
@@ -2541,7 +2610,7 @@
         <v>2742</v>
       </c>
       <c r="H29">
-        <v>17.245283018867919</v>
+        <v>17.24528301886792</v>
       </c>
       <c r="I29">
         <v>26</v>
@@ -2565,7 +2634,7 @@
         <v>15</v>
       </c>
       <c r="R29">
-        <v>78.400000000000006</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="S29">
         <v>5.333333333333333</v>
@@ -2583,9 +2652,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B30">
         <v>2019</v>
@@ -2639,9 +2708,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="B31">
         <v>2020</v>
@@ -2653,7 +2722,7 @@
         <v>185.42</v>
       </c>
       <c r="E31">
-        <v>44.235326029760003</v>
+        <v>44.23532602976</v>
       </c>
       <c r="F31">
         <v>129</v>
@@ -2662,7 +2731,7 @@
         <v>1465</v>
       </c>
       <c r="H31">
-        <v>11.356589147286821</v>
+        <v>11.35658914728682</v>
       </c>
       <c r="I31">
         <v>16</v>
@@ -2704,9 +2773,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B32">
         <v>2020</v>
@@ -2718,7 +2787,7 @@
         <v>187.96</v>
       </c>
       <c r="E32">
-        <v>37.651463550911998</v>
+        <v>37.651463550912</v>
       </c>
       <c r="F32">
         <v>82</v>
@@ -2727,7 +2796,7 @@
         <v>1447</v>
       </c>
       <c r="H32">
-        <v>17.646341463414629</v>
+        <v>17.64634146341463</v>
       </c>
       <c r="I32">
         <v>14</v>
@@ -2757,7 +2826,7 @@
         <v>50.5</v>
       </c>
       <c r="S32">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2772,9 +2841,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B33">
         <v>2019</v>
@@ -2786,7 +2855,7 @@
         <v>175.26</v>
       </c>
       <c r="E33">
-        <v>82.553743999999995</v>
+        <v>82.55374399999999</v>
       </c>
       <c r="F33">
         <v>189</v>
@@ -2795,7 +2864,7 @@
         <v>2662</v>
       </c>
       <c r="H33">
-        <v>14.084656084656091</v>
+        <v>14.08465608465609</v>
       </c>
       <c r="I33">
         <v>24</v>
@@ -2804,7 +2873,7 @@
         <v>33</v>
       </c>
       <c r="K33">
-        <v>4.5599999999999996</v>
+        <v>4.56</v>
       </c>
       <c r="L33">
         <v>37</v>
@@ -2843,9 +2912,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>2020</v>
@@ -2887,7 +2956,7 @@
         <v>22</v>
       </c>
       <c r="R34">
-        <v>90.4</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="S34">
         <v>13</v>
@@ -2905,9 +2974,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>2019</v>
@@ -2919,7 +2988,7 @@
         <v>185.42</v>
       </c>
       <c r="E35">
-        <v>95.254319999999993</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F35">
         <v>60</v>
@@ -2937,7 +3006,7 @@
         <v>21</v>
       </c>
       <c r="K35">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="Q35">
         <v>187</v>
@@ -2961,9 +3030,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>2020</v>
@@ -2975,7 +3044,7 @@
         <v>182.88</v>
       </c>
       <c r="E36">
-        <v>40.737649087872001</v>
+        <v>40.737649087872</v>
       </c>
       <c r="F36">
         <v>201</v>
@@ -2993,7 +3062,7 @@
         <v>50</v>
       </c>
       <c r="K36">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L36">
         <v>32.5</v>
@@ -3011,7 +3080,7 @@
         <v>67</v>
       </c>
       <c r="S36">
-        <v>0.33333333333333331</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3026,9 +3095,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B37">
         <v>2020</v>
@@ -3040,7 +3109,7 @@
         <v>180.34</v>
       </c>
       <c r="E37">
-        <v>41.766377600192001</v>
+        <v>41.766377600192</v>
       </c>
       <c r="F37">
         <v>146</v>
@@ -3049,7 +3118,7 @@
         <v>2037</v>
       </c>
       <c r="H37">
-        <v>13.952054794520549</v>
+        <v>13.95205479452055</v>
       </c>
       <c r="I37">
         <v>17</v>
@@ -3058,7 +3127,7 @@
         <v>46</v>
       </c>
       <c r="K37">
-        <v>4.4800000000000004</v>
+        <v>4.48</v>
       </c>
       <c r="L37">
         <v>37.5</v>
@@ -3073,13 +3142,13 @@
         <v>7</v>
       </c>
       <c r="P37">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="Q37">
         <v>176</v>
       </c>
       <c r="R37">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="S37">
         <v>3.333333333333333</v>
@@ -3097,9 +3166,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B38">
         <v>2019</v>
@@ -3111,7 +3180,7 @@
         <v>185.42</v>
       </c>
       <c r="E38">
-        <v>91.171992000000003</v>
+        <v>91.171992</v>
       </c>
       <c r="F38">
         <v>275</v>
@@ -3129,7 +3198,7 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L38">
         <v>30</v>
@@ -3144,7 +3213,7 @@
         <v>7.28</v>
       </c>
       <c r="P38">
-        <v>4.2300000000000004</v>
+        <v>4.23</v>
       </c>
       <c r="Q38">
         <v>174</v>
@@ -3168,7 +3237,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -3200,7 +3269,7 @@
         <v>35</v>
       </c>
       <c r="K39">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="L39">
         <v>32.5</v>
@@ -3239,9 +3308,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B40">
         <v>2020</v>
@@ -3253,7 +3322,7 @@
         <v>175.26</v>
       </c>
       <c r="E40">
-        <v>35.594006526271997</v>
+        <v>35.594006526272</v>
       </c>
       <c r="F40">
         <v>98</v>
@@ -3271,7 +3340,7 @@
         <v>26</v>
       </c>
       <c r="K40">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="M40">
         <v>15</v>
@@ -3298,9 +3367,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B41">
         <v>2020</v>
@@ -3312,7 +3381,7 @@
         <v>187.96</v>
       </c>
       <c r="E41">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F41">
         <v>149</v>
@@ -3357,9 +3426,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B42">
         <v>2020</v>
@@ -3371,7 +3440,7 @@
         <v>180.34</v>
       </c>
       <c r="E42">
-        <v>40.943394790336001</v>
+        <v>40.943394790336</v>
       </c>
       <c r="F42">
         <v>114</v>
@@ -3401,7 +3470,7 @@
         <v>68.8</v>
       </c>
       <c r="S42">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="T42">
         <v>2</v>
@@ -3416,9 +3485,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B43">
         <v>2019</v>
@@ -3430,7 +3499,7 @@
         <v>175.26</v>
       </c>
       <c r="E43">
-        <v>77.110640000000004</v>
+        <v>77.11064</v>
       </c>
       <c r="F43">
         <v>132</v>
@@ -3439,7 +3508,7 @@
         <v>2413</v>
       </c>
       <c r="H43">
-        <v>18.280303030303031</v>
+        <v>18.28030303030303</v>
       </c>
       <c r="I43">
         <v>17</v>
@@ -3472,9 +3541,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B44">
         <v>2019</v>
@@ -3486,7 +3555,7 @@
         <v>177.8</v>
       </c>
       <c r="E44">
-        <v>84.821703999999997</v>
+        <v>84.821704</v>
       </c>
       <c r="F44">
         <v>60</v>
@@ -3495,7 +3564,7 @@
         <v>961</v>
       </c>
       <c r="H44">
-        <v>16.016666666666669</v>
+        <v>16.01666666666667</v>
       </c>
       <c r="I44">
         <v>11</v>
@@ -3519,7 +3588,7 @@
         <v>56</v>
       </c>
       <c r="R44">
-        <v>67.900000000000006</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="S44">
         <v>5.5</v>
@@ -3537,9 +3606,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>2020</v>
@@ -3551,7 +3620,7 @@
         <v>193.04</v>
       </c>
       <c r="E45">
-        <v>45.264054542079997</v>
+        <v>45.26405454208</v>
       </c>
       <c r="F45">
         <v>171</v>
@@ -3569,7 +3638,7 @@
         <v>41</v>
       </c>
       <c r="K45">
-        <v>4.5199999999999996</v>
+        <v>4.52</v>
       </c>
       <c r="L45">
         <v>36.5</v>
@@ -3584,13 +3653,13 @@
         <v>6.96</v>
       </c>
       <c r="P45">
-        <v>4.1399999999999997</v>
+        <v>4.14</v>
       </c>
       <c r="Q45">
         <v>34</v>
       </c>
       <c r="R45">
-        <v>70.599999999999994</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="S45">
         <v>7.666666666666667</v>
@@ -3608,9 +3677,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B46">
         <v>2019</v>
@@ -3622,7 +3691,7 @@
         <v>193.04</v>
       </c>
       <c r="E46">
-        <v>99.790239999999997</v>
+        <v>99.79024</v>
       </c>
       <c r="F46">
         <v>77</v>
@@ -3631,7 +3700,7 @@
         <v>1206</v>
       </c>
       <c r="H46">
-        <v>15.662337662337659</v>
+        <v>15.66233766233766</v>
       </c>
       <c r="I46">
         <v>11</v>
@@ -3679,9 +3748,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B47">
         <v>2019</v>
@@ -3726,7 +3795,7 @@
         <v>32</v>
       </c>
       <c r="R47">
-        <v>65.099999999999994</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="S47">
         <v>1.75</v>
@@ -3744,9 +3813,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="B48">
         <v>2019</v>
@@ -3758,7 +3827,7 @@
         <v>182.88</v>
       </c>
       <c r="E48">
-        <v>92.532768000000004</v>
+        <v>92.532768</v>
       </c>
       <c r="F48">
         <v>125</v>
@@ -3767,7 +3836,7 @@
         <v>2019</v>
       </c>
       <c r="H48">
-        <v>16.152000000000001</v>
+        <v>16.152</v>
       </c>
       <c r="I48">
         <v>11</v>
@@ -3815,9 +3884,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:23">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B49">
         <v>2019</v>
@@ -3829,7 +3898,7 @@
         <v>182.88</v>
       </c>
       <c r="E49">
-        <v>94.347136000000006</v>
+        <v>94.34713600000001</v>
       </c>
       <c r="F49">
         <v>143</v>
@@ -3847,7 +3916,7 @@
         <v>43</v>
       </c>
       <c r="K49">
-        <v>4.3099999999999996</v>
+        <v>4.31</v>
       </c>
       <c r="L49">
         <v>40</v>
@@ -3883,9 +3952,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -3906,7 +3975,7 @@
         <v>2404</v>
       </c>
       <c r="H50">
-        <v>15.119496855345909</v>
+        <v>15.11949685534591</v>
       </c>
       <c r="I50">
         <v>17</v>
@@ -3915,7 +3984,7 @@
         <v>34</v>
       </c>
       <c r="K50">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="L50">
         <v>36.5</v>
@@ -3927,7 +3996,7 @@
         <v>7.28</v>
       </c>
       <c r="P50">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="Q50">
         <v>200</v>
@@ -3951,9 +4020,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:23">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -3965,7 +4034,7 @@
         <v>185.42</v>
       </c>
       <c r="E51">
-        <v>42.795106112512002</v>
+        <v>42.795106112512</v>
       </c>
       <c r="F51">
         <v>93</v>
@@ -3983,7 +4052,7 @@
         <v>30</v>
       </c>
       <c r="K51">
-        <v>4.7300000000000004</v>
+        <v>4.73</v>
       </c>
       <c r="L51">
         <v>38.5</v>
@@ -4022,9 +4091,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:23">
       <c r="A52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B52">
         <v>2019</v>
@@ -4036,7 +4105,7 @@
         <v>185.42</v>
       </c>
       <c r="E52">
-        <v>90.264808000000002</v>
+        <v>90.264808</v>
       </c>
       <c r="F52">
         <v>69</v>
@@ -4045,7 +4114,7 @@
         <v>1015</v>
       </c>
       <c r="H52">
-        <v>14.710144927536231</v>
+        <v>14.71014492753623</v>
       </c>
       <c r="I52">
         <v>13</v>
@@ -4093,9 +4162,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:23">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B53">
         <v>2019</v>
@@ -4107,7 +4176,7 @@
         <v>175.26</v>
       </c>
       <c r="E53">
-        <v>78.925008000000005</v>
+        <v>78.92500800000001</v>
       </c>
       <c r="F53">
         <v>215</v>
@@ -4116,7 +4185,7 @@
         <v>2867</v>
       </c>
       <c r="H53">
-        <v>13.334883720930231</v>
+        <v>13.33488372093023</v>
       </c>
       <c r="I53">
         <v>23</v>
@@ -4125,7 +4194,7 @@
         <v>45</v>
       </c>
       <c r="K53">
-        <v>4.3600000000000003</v>
+        <v>4.36</v>
       </c>
       <c r="L53">
         <v>34</v>
@@ -4140,7 +4209,7 @@
         <v>6.97</v>
       </c>
       <c r="P53">
-        <v>4.0199999999999996</v>
+        <v>4.02</v>
       </c>
       <c r="Q53">
         <v>208</v>
@@ -4164,9 +4233,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:23">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B54">
         <v>2020</v>
@@ -4178,7 +4247,7 @@
         <v>193.04</v>
       </c>
       <c r="E54">
-        <v>45.058308839615997</v>
+        <v>45.058308839616</v>
       </c>
       <c r="F54">
         <v>135</v>
@@ -4187,7 +4256,7 @@
         <v>2448</v>
       </c>
       <c r="H54">
-        <v>18.133333333333329</v>
+        <v>18.13333333333333</v>
       </c>
       <c r="I54">
         <v>27</v>
@@ -4202,10 +4271,10 @@
         <v>33</v>
       </c>
       <c r="R54">
-        <v>77.099999999999994</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="S54">
-        <v>8.6666666666666661</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="T54">
         <v>26</v>
@@ -4220,9 +4289,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:23">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B55">
         <v>2019</v>
@@ -4234,7 +4303,7 @@
         <v>180.34</v>
       </c>
       <c r="E55">
-        <v>83.914519999999996</v>
+        <v>83.91452</v>
       </c>
       <c r="F55">
         <v>134</v>
@@ -4243,7 +4312,7 @@
         <v>1800</v>
       </c>
       <c r="H55">
-        <v>13.432835820895519</v>
+        <v>13.43283582089552</v>
       </c>
       <c r="I55">
         <v>11</v>
@@ -4285,9 +4354,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:23">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B56">
         <v>2019</v>
@@ -4299,7 +4368,7 @@
         <v>182.88</v>
       </c>
       <c r="E56">
-        <v>95.254319999999993</v>
+        <v>95.25431999999999</v>
       </c>
       <c r="F56">
         <v>75</v>
@@ -4317,7 +4386,7 @@
         <v>44</v>
       </c>
       <c r="K56">
-        <v>4.3499999999999996</v>
+        <v>4.35</v>
       </c>
       <c r="L56">
         <v>37.5</v>
@@ -4332,13 +4401,13 @@
         <v>7.01</v>
       </c>
       <c r="P56">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="Q56">
         <v>76</v>
       </c>
       <c r="R56">
-        <v>79.900000000000006</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="S56">
         <v>7.75</v>
@@ -4356,9 +4425,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:23">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B57">
         <v>2019</v>
@@ -4370,7 +4439,7 @@
         <v>190.5</v>
       </c>
       <c r="E57">
-        <v>97.522279999999995</v>
+        <v>97.52227999999999</v>
       </c>
       <c r="F57">
         <v>128</v>
@@ -4421,9 +4490,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:23">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="B58">
         <v>2020</v>
@@ -4435,7 +4504,7 @@
         <v>185.42</v>
       </c>
       <c r="E58">
-        <v>42.383614707584002</v>
+        <v>42.383614707584</v>
       </c>
       <c r="F58">
         <v>213</v>
@@ -4477,9 +4546,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:23">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="B59">
         <v>2020</v>
@@ -4491,7 +4560,7 @@
         <v>185.42</v>
       </c>
       <c r="E59">
-        <v>41.149140492800001</v>
+        <v>41.1491404928</v>
       </c>
       <c r="F59">
         <v>175</v>
@@ -4509,13 +4578,13 @@
         <v>45</v>
       </c>
       <c r="K59">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="Q59">
         <v>57</v>
       </c>
       <c r="R59">
-        <v>68.400000000000006</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="S59">
         <v>4.333333333333333</v>
@@ -4533,10 +4602,1805 @@
         <v>3</v>
       </c>
     </row>
+    <row r="60" spans="1:23">
+      <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>2018</v>
+      </c>
+      <c r="C60">
+        <v>23</v>
+      </c>
+      <c r="D60">
+        <v>190.5</v>
+      </c>
+      <c r="E60">
+        <v>93.89354400000001</v>
+      </c>
+      <c r="F60">
+        <v>158</v>
+      </c>
+      <c r="G60">
+        <v>2477</v>
+      </c>
+      <c r="H60">
+        <v>15.67721518987342</v>
+      </c>
+      <c r="I60">
+        <v>21</v>
+      </c>
+      <c r="J60">
+        <v>47</v>
+      </c>
+      <c r="K60">
+        <v>4.6</v>
+      </c>
+      <c r="L60">
+        <v>38</v>
+      </c>
+      <c r="M60">
+        <v>21</v>
+      </c>
+      <c r="N60">
+        <v>120</v>
+      </c>
+      <c r="O60">
+        <v>6.56</v>
+      </c>
+      <c r="P60">
+        <v>4.04</v>
+      </c>
+      <c r="Q60">
+        <v>265</v>
+      </c>
+      <c r="R60">
+        <v>53.5</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+      <c r="B61">
+        <v>2018</v>
+      </c>
+      <c r="C61">
+        <v>23</v>
+      </c>
+      <c r="D61">
+        <v>195.58</v>
+      </c>
+      <c r="E61">
+        <v>98.883056</v>
+      </c>
+      <c r="F61">
+        <v>99</v>
+      </c>
+      <c r="G61">
+        <v>1362</v>
+      </c>
+      <c r="H61">
+        <v>13.75757575757576</v>
+      </c>
+      <c r="I61">
+        <v>14</v>
+      </c>
+      <c r="J61">
+        <v>23</v>
+      </c>
+      <c r="K61">
+        <v>4.56</v>
+      </c>
+      <c r="L61">
+        <v>34.5</v>
+      </c>
+      <c r="M61">
+        <v>16</v>
+      </c>
+      <c r="N61">
+        <v>124</v>
+      </c>
+      <c r="O61">
+        <v>7.2</v>
+      </c>
+      <c r="P61">
+        <v>4.4</v>
+      </c>
+      <c r="Q61">
+        <v>132</v>
+      </c>
+      <c r="R61">
+        <v>78.3</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
+      <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62">
+        <v>23</v>
+      </c>
+      <c r="D62">
+        <v>185.42</v>
+      </c>
+      <c r="E62">
+        <v>90.264808</v>
+      </c>
+      <c r="F62">
+        <v>214</v>
+      </c>
+      <c r="G62">
+        <v>2842</v>
+      </c>
+      <c r="H62">
+        <v>13.2803738317757</v>
+      </c>
+      <c r="I62">
+        <v>18</v>
+      </c>
+      <c r="J62">
+        <v>50</v>
+      </c>
+      <c r="L62">
+        <v>34.5</v>
+      </c>
+      <c r="N62">
+        <v>118</v>
+      </c>
+      <c r="O62">
+        <v>6.84</v>
+      </c>
+      <c r="P62">
+        <v>4.15</v>
+      </c>
+      <c r="Q62">
+        <v>113</v>
+      </c>
+      <c r="R62">
+        <v>58.4</v>
+      </c>
+      <c r="S62">
+        <v>1.2</v>
+      </c>
+      <c r="T62">
+        <v>6</v>
+      </c>
+      <c r="W62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63">
+        <v>2018</v>
+      </c>
+      <c r="C63">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>180.34</v>
+      </c>
+      <c r="E63">
+        <v>90.7184</v>
+      </c>
+      <c r="F63">
+        <v>89</v>
+      </c>
+      <c r="G63">
+        <v>1399</v>
+      </c>
+      <c r="H63">
+        <v>15.71910112359551</v>
+      </c>
+      <c r="I63">
+        <v>7</v>
+      </c>
+      <c r="J63">
+        <v>26</v>
+      </c>
+      <c r="K63">
+        <v>4.41</v>
+      </c>
+      <c r="L63">
+        <v>43</v>
+      </c>
+      <c r="N63">
+        <v>121</v>
+      </c>
+      <c r="Q63">
+        <v>105</v>
+      </c>
+      <c r="R63">
+        <v>60.5</v>
+      </c>
+      <c r="S63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>5</v>
+      </c>
+      <c r="W63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64">
+        <v>2018</v>
+      </c>
+      <c r="C64">
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <v>177.8</v>
+      </c>
+      <c r="E64">
+        <v>82.10015199999999</v>
+      </c>
+      <c r="F64">
+        <v>159</v>
+      </c>
+      <c r="G64">
+        <v>2424</v>
+      </c>
+      <c r="H64">
+        <v>15.24528301886792</v>
+      </c>
+      <c r="I64">
+        <v>17</v>
+      </c>
+      <c r="J64">
+        <v>30</v>
+      </c>
+      <c r="K64">
+        <v>4.43</v>
+      </c>
+      <c r="L64">
+        <v>34.5</v>
+      </c>
+      <c r="M64">
+        <v>14</v>
+      </c>
+      <c r="N64">
+        <v>113</v>
+      </c>
+      <c r="O64">
+        <v>6.93</v>
+      </c>
+      <c r="P64">
+        <v>4.15</v>
+      </c>
+      <c r="Q64">
+        <v>103</v>
+      </c>
+      <c r="R64">
+        <v>37.5</v>
+      </c>
+      <c r="S64">
+        <v>1.4</v>
+      </c>
+      <c r="T64">
+        <v>7</v>
+      </c>
+      <c r="W64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65">
+        <v>2018</v>
+      </c>
+      <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>187.96</v>
+      </c>
+      <c r="E65">
+        <v>92.079176</v>
+      </c>
+      <c r="F65">
+        <v>168</v>
+      </c>
+      <c r="G65">
+        <v>2748</v>
+      </c>
+      <c r="H65">
+        <v>16.35714285714286</v>
+      </c>
+      <c r="I65">
+        <v>22</v>
+      </c>
+      <c r="J65">
+        <v>37</v>
+      </c>
+      <c r="K65">
+        <v>4.49</v>
+      </c>
+      <c r="L65">
+        <v>37.5</v>
+      </c>
+      <c r="M65">
+        <v>12</v>
+      </c>
+      <c r="N65">
+        <v>130</v>
+      </c>
+      <c r="O65">
+        <v>6.97</v>
+      </c>
+      <c r="P65">
+        <v>4.5</v>
+      </c>
+      <c r="Q65">
+        <v>265</v>
+      </c>
+      <c r="R65">
+        <v>69</v>
+      </c>
+      <c r="S65">
+        <v>3</v>
+      </c>
+      <c r="T65">
+        <v>15</v>
+      </c>
+      <c r="W65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
+      <c r="A66" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66">
+        <v>2018</v>
+      </c>
+      <c r="C66">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>185.42</v>
+      </c>
+      <c r="E66">
+        <v>92.98636</v>
+      </c>
+      <c r="F66">
+        <v>176</v>
+      </c>
+      <c r="G66">
+        <v>2690</v>
+      </c>
+      <c r="H66">
+        <v>15.28409090909091</v>
+      </c>
+      <c r="I66">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>26</v>
+      </c>
+      <c r="K66">
+        <v>4.51</v>
+      </c>
+      <c r="L66">
+        <v>36</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>122</v>
+      </c>
+      <c r="O66">
+        <v>6.95</v>
+      </c>
+      <c r="P66">
+        <v>4.37</v>
+      </c>
+      <c r="Q66">
+        <v>81</v>
+      </c>
+      <c r="R66">
+        <v>62.8</v>
+      </c>
+      <c r="S66">
+        <v>5.2</v>
+      </c>
+      <c r="T66">
+        <v>26</v>
+      </c>
+      <c r="W66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
+      <c r="A67" t="s">
+        <v>87</v>
+      </c>
+      <c r="B67">
+        <v>2018</v>
+      </c>
+      <c r="C67">
+        <v>21</v>
+      </c>
+      <c r="D67">
+        <v>190.5</v>
+      </c>
+      <c r="E67">
+        <v>90.264808</v>
+      </c>
+      <c r="F67">
+        <v>66</v>
+      </c>
+      <c r="G67">
+        <v>1351</v>
+      </c>
+      <c r="H67">
+        <v>20.46969696969697</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+      <c r="J67">
+        <v>25</v>
+      </c>
+      <c r="K67">
+        <v>4.34</v>
+      </c>
+      <c r="L67">
+        <v>40</v>
+      </c>
+      <c r="M67">
+        <v>16</v>
+      </c>
+      <c r="N67">
+        <v>129</v>
+      </c>
+      <c r="Q67">
+        <v>61</v>
+      </c>
+      <c r="R67">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="S67">
+        <v>3.6</v>
+      </c>
+      <c r="T67">
+        <v>18</v>
+      </c>
+      <c r="W67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
+      <c r="A68" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68">
+        <v>2018</v>
+      </c>
+      <c r="C68">
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <v>180.34</v>
+      </c>
+      <c r="E68">
+        <v>96.61509599999999</v>
+      </c>
+      <c r="F68">
+        <v>226</v>
+      </c>
+      <c r="G68">
+        <v>4472</v>
+      </c>
+      <c r="H68">
+        <v>19.78761061946903</v>
+      </c>
+      <c r="I68">
+        <v>39</v>
+      </c>
+      <c r="J68">
+        <v>51</v>
+      </c>
+      <c r="K68">
+        <v>4.54</v>
+      </c>
+      <c r="L68">
+        <v>34.5</v>
+      </c>
+      <c r="M68">
+        <v>14</v>
+      </c>
+      <c r="N68">
+        <v>120</v>
+      </c>
+      <c r="O68">
+        <v>7.11</v>
+      </c>
+      <c r="P68">
+        <v>4.32</v>
+      </c>
+      <c r="Q68">
+        <v>60</v>
+      </c>
+      <c r="R68">
+        <v>52.3</v>
+      </c>
+      <c r="S68">
+        <v>2.2</v>
+      </c>
+      <c r="T68">
+        <v>11</v>
+      </c>
+      <c r="W68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
+      <c r="A69" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69">
+        <v>2018</v>
+      </c>
+      <c r="C69">
+        <v>23</v>
+      </c>
+      <c r="D69">
+        <v>180.34</v>
+      </c>
+      <c r="E69">
+        <v>91.171992</v>
+      </c>
+      <c r="F69">
+        <v>238</v>
+      </c>
+      <c r="G69">
+        <v>3590</v>
+      </c>
+      <c r="H69">
+        <v>15.08403361344538</v>
+      </c>
+      <c r="I69">
+        <v>37</v>
+      </c>
+      <c r="J69">
+        <v>38</v>
+      </c>
+      <c r="K69">
+        <v>4.5</v>
+      </c>
+      <c r="L69">
+        <v>39</v>
+      </c>
+      <c r="M69">
+        <v>22</v>
+      </c>
+      <c r="N69">
+        <v>125</v>
+      </c>
+      <c r="O69">
+        <v>6.65</v>
+      </c>
+      <c r="P69">
+        <v>4.26</v>
+      </c>
+      <c r="Q69">
+        <v>51</v>
+      </c>
+      <c r="R69">
+        <v>61.9</v>
+      </c>
+      <c r="S69">
+        <v>2.4</v>
+      </c>
+      <c r="T69">
+        <v>12</v>
+      </c>
+      <c r="W69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70">
+        <v>2018</v>
+      </c>
+      <c r="C70">
+        <v>21</v>
+      </c>
+      <c r="D70">
+        <v>177.8</v>
+      </c>
+      <c r="E70">
+        <v>91.171992</v>
+      </c>
+      <c r="F70">
+        <v>234</v>
+      </c>
+      <c r="G70">
+        <v>2856</v>
+      </c>
+      <c r="H70">
+        <v>12.2051282051282</v>
+      </c>
+      <c r="I70">
+        <v>26</v>
+      </c>
+      <c r="J70">
+        <v>39</v>
+      </c>
+      <c r="K70">
+        <v>4.47</v>
+      </c>
+      <c r="L70">
+        <v>35.5</v>
+      </c>
+      <c r="M70">
+        <v>20</v>
+      </c>
+      <c r="N70">
+        <v>115</v>
+      </c>
+      <c r="O70">
+        <v>7.09</v>
+      </c>
+      <c r="P70">
+        <v>4.45</v>
+      </c>
+      <c r="Q70">
+        <v>47</v>
+      </c>
+      <c r="R70">
+        <v>74.2</v>
+      </c>
+      <c r="S70">
+        <v>6.6</v>
+      </c>
+      <c r="T70">
+        <v>33</v>
+      </c>
+      <c r="W70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
+      <c r="A71" t="s">
+        <v>91</v>
+      </c>
+      <c r="B71">
+        <v>2018</v>
+      </c>
+      <c r="C71">
+        <v>22</v>
+      </c>
+      <c r="D71">
+        <v>182.88</v>
+      </c>
+      <c r="E71">
+        <v>84.368112</v>
+      </c>
+      <c r="F71">
+        <v>163</v>
+      </c>
+      <c r="G71">
+        <v>2256</v>
+      </c>
+      <c r="H71">
+        <v>13.84049079754601</v>
+      </c>
+      <c r="I71">
+        <v>24</v>
+      </c>
+      <c r="J71">
+        <v>52</v>
+      </c>
+      <c r="Q71">
+        <v>44</v>
+      </c>
+      <c r="R71">
+        <v>68.3</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>9</v>
+      </c>
+      <c r="W71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
+      <c r="A72" t="s">
+        <v>92</v>
+      </c>
+      <c r="B72">
+        <v>2018</v>
+      </c>
+      <c r="C72">
+        <v>22</v>
+      </c>
+      <c r="D72">
+        <v>190.5</v>
+      </c>
+      <c r="E72">
+        <v>98.883056</v>
+      </c>
+      <c r="F72">
+        <v>195</v>
+      </c>
+      <c r="G72">
+        <v>3220</v>
+      </c>
+      <c r="H72">
+        <v>16.51282051282051</v>
+      </c>
+      <c r="I72">
+        <v>31</v>
+      </c>
+      <c r="J72">
+        <v>40</v>
+      </c>
+      <c r="K72">
+        <v>4.54</v>
+      </c>
+      <c r="L72">
+        <v>35.5</v>
+      </c>
+      <c r="M72">
+        <v>18</v>
+      </c>
+      <c r="N72">
+        <v>124</v>
+      </c>
+      <c r="O72">
+        <v>6.57</v>
+      </c>
+      <c r="P72">
+        <v>4.11</v>
+      </c>
+      <c r="Q72">
+        <v>40</v>
+      </c>
+      <c r="R72">
+        <v>71.2</v>
+      </c>
+      <c r="S72">
+        <v>4.8</v>
+      </c>
+      <c r="T72">
+        <v>24</v>
+      </c>
+      <c r="W72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73">
+        <v>2018</v>
+      </c>
+      <c r="C73">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>182.88</v>
+      </c>
+      <c r="E73">
+        <v>85.728888</v>
+      </c>
+      <c r="F73">
+        <v>224</v>
+      </c>
+      <c r="G73">
+        <v>2781</v>
+      </c>
+      <c r="H73">
+        <v>12.41517857142857</v>
+      </c>
+      <c r="I73">
+        <v>19</v>
+      </c>
+      <c r="J73">
+        <v>44</v>
+      </c>
+      <c r="K73">
+        <v>4.43</v>
+      </c>
+      <c r="L73">
+        <v>31</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>110</v>
+      </c>
+      <c r="O73">
+        <v>6.88</v>
+      </c>
+      <c r="P73">
+        <v>4.41</v>
+      </c>
+      <c r="Q73">
+        <v>26</v>
+      </c>
+      <c r="R73">
+        <v>64.3</v>
+      </c>
+      <c r="S73">
+        <v>5.2</v>
+      </c>
+      <c r="T73">
+        <v>26</v>
+      </c>
+      <c r="W73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
+      <c r="A74" t="s">
+        <v>94</v>
+      </c>
+      <c r="B74">
+        <v>2018</v>
+      </c>
+      <c r="C74">
+        <v>21</v>
+      </c>
+      <c r="D74">
+        <v>182.88</v>
+      </c>
+      <c r="E74">
+        <v>95.25431999999999</v>
+      </c>
+      <c r="F74">
+        <v>146</v>
+      </c>
+      <c r="G74">
+        <v>2027</v>
+      </c>
+      <c r="H74">
+        <v>13.88356164383562</v>
+      </c>
+      <c r="I74">
+        <v>17</v>
+      </c>
+      <c r="J74">
+        <v>36</v>
+      </c>
+      <c r="K74">
+        <v>4.42</v>
+      </c>
+      <c r="L74">
+        <v>39.5</v>
+      </c>
+      <c r="M74">
+        <v>15</v>
+      </c>
+      <c r="N74">
+        <v>132</v>
+      </c>
+      <c r="O74">
+        <v>6.95</v>
+      </c>
+      <c r="P74">
+        <v>4.07</v>
+      </c>
+      <c r="Q74">
+        <v>24</v>
+      </c>
+      <c r="R74">
+        <v>88.3</v>
+      </c>
+      <c r="S74">
+        <v>7.8</v>
+      </c>
+      <c r="T74">
+        <v>39</v>
+      </c>
+      <c r="W74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
+      <c r="A75" t="s">
+        <v>95</v>
+      </c>
+      <c r="B75">
+        <v>2018</v>
+      </c>
+      <c r="C75">
+        <v>22</v>
+      </c>
+      <c r="D75">
+        <v>180.34</v>
+      </c>
+      <c r="E75">
+        <v>92.079176</v>
+      </c>
+      <c r="F75">
+        <v>136</v>
+      </c>
+      <c r="G75">
+        <v>1512</v>
+      </c>
+      <c r="H75">
+        <v>11.11764705882353</v>
+      </c>
+      <c r="I75">
+        <v>13</v>
+      </c>
+      <c r="J75">
+        <v>27</v>
+      </c>
+      <c r="K75">
+        <v>4.55</v>
+      </c>
+      <c r="L75">
+        <v>33.5</v>
+      </c>
+      <c r="M75">
+        <v>17</v>
+      </c>
+      <c r="N75">
+        <v>116</v>
+      </c>
+      <c r="O75">
+        <v>6.91</v>
+      </c>
+      <c r="P75">
+        <v>4.19</v>
+      </c>
+      <c r="Q75">
+        <v>256</v>
+      </c>
+      <c r="R75">
+        <v>54.1</v>
+      </c>
+      <c r="S75">
+        <v>0.4</v>
+      </c>
+      <c r="T75">
+        <v>2</v>
+      </c>
+      <c r="W75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+      <c r="B76">
+        <v>2018</v>
+      </c>
+      <c r="C76">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>195.58</v>
+      </c>
+      <c r="E76">
+        <v>103.418976</v>
+      </c>
+      <c r="F76">
+        <v>65</v>
+      </c>
+      <c r="G76">
+        <v>957</v>
+      </c>
+      <c r="H76">
+        <v>14.72307692307692</v>
+      </c>
+      <c r="I76">
+        <v>16</v>
+      </c>
+      <c r="J76">
+        <v>22</v>
+      </c>
+      <c r="K76">
+        <v>4.68</v>
+      </c>
+      <c r="L76">
+        <v>31</v>
+      </c>
+      <c r="N76">
+        <v>112</v>
+      </c>
+      <c r="Q76">
+        <v>253</v>
+      </c>
+      <c r="R76">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="S76">
+        <v>1</v>
+      </c>
+      <c r="T76">
+        <v>5</v>
+      </c>
+      <c r="W76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77">
+        <v>2018</v>
+      </c>
+      <c r="C77">
+        <v>23</v>
+      </c>
+      <c r="D77">
+        <v>177.8</v>
+      </c>
+      <c r="E77">
+        <v>83.007336</v>
+      </c>
+      <c r="F77">
+        <v>243</v>
+      </c>
+      <c r="G77">
+        <v>3249</v>
+      </c>
+      <c r="H77">
+        <v>13.37037037037037</v>
+      </c>
+      <c r="I77">
+        <v>23</v>
+      </c>
+      <c r="J77">
+        <v>31</v>
+      </c>
+      <c r="K77">
+        <v>4.48</v>
+      </c>
+      <c r="L77">
+        <v>35.5</v>
+      </c>
+      <c r="M77">
+        <v>6</v>
+      </c>
+      <c r="N77">
+        <v>122</v>
+      </c>
+      <c r="O77">
+        <v>6.87</v>
+      </c>
+      <c r="P77">
+        <v>4.16</v>
+      </c>
+      <c r="Q77">
+        <v>240</v>
+      </c>
+      <c r="R77">
+        <v>51</v>
+      </c>
+      <c r="S77">
+        <v>2.4</v>
+      </c>
+      <c r="T77">
+        <v>12</v>
+      </c>
+      <c r="W77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78">
+        <v>2018</v>
+      </c>
+      <c r="C78">
+        <v>23</v>
+      </c>
+      <c r="D78">
+        <v>193.04</v>
+      </c>
+      <c r="E78">
+        <v>97.975872</v>
+      </c>
+      <c r="F78">
+        <v>146</v>
+      </c>
+      <c r="G78">
+        <v>2466</v>
+      </c>
+      <c r="H78">
+        <v>16.89041095890411</v>
+      </c>
+      <c r="I78">
+        <v>13</v>
+      </c>
+      <c r="J78">
+        <v>43</v>
+      </c>
+      <c r="K78">
+        <v>4.62</v>
+      </c>
+      <c r="L78">
+        <v>34</v>
+      </c>
+      <c r="M78">
+        <v>13</v>
+      </c>
+      <c r="N78">
+        <v>121</v>
+      </c>
+      <c r="O78">
+        <v>7.07</v>
+      </c>
+      <c r="P78">
+        <v>4.25</v>
+      </c>
+      <c r="Q78">
+        <v>228</v>
+      </c>
+      <c r="R78">
+        <v>45</v>
+      </c>
+      <c r="S78">
+        <v>0.4</v>
+      </c>
+      <c r="T78">
+        <v>2</v>
+      </c>
+      <c r="W78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79">
+        <v>2018</v>
+      </c>
+      <c r="C79">
+        <v>23</v>
+      </c>
+      <c r="D79">
+        <v>190.5</v>
+      </c>
+      <c r="E79">
+        <v>97.52227999999999</v>
+      </c>
+      <c r="F79">
+        <v>62</v>
+      </c>
+      <c r="G79">
+        <v>910</v>
+      </c>
+      <c r="H79">
+        <v>14.67741935483871</v>
+      </c>
+      <c r="I79">
+        <v>8</v>
+      </c>
+      <c r="J79">
+        <v>22</v>
+      </c>
+      <c r="K79">
+        <v>4.53</v>
+      </c>
+      <c r="L79">
+        <v>33.5</v>
+      </c>
+      <c r="N79">
+        <v>113</v>
+      </c>
+      <c r="O79">
+        <v>7</v>
+      </c>
+      <c r="Q79">
+        <v>224</v>
+      </c>
+      <c r="R79">
+        <v>53.9</v>
+      </c>
+      <c r="S79">
+        <v>0.2</v>
+      </c>
+      <c r="T79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B80">
+        <v>2018</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>175.26</v>
+      </c>
+      <c r="E80">
+        <v>83.460928</v>
+      </c>
+      <c r="F80">
+        <v>100</v>
+      </c>
+      <c r="G80">
+        <v>1175</v>
+      </c>
+      <c r="H80">
+        <v>11.75</v>
+      </c>
+      <c r="I80">
+        <v>14</v>
+      </c>
+      <c r="J80">
+        <v>46</v>
+      </c>
+      <c r="K80">
+        <v>4.44</v>
+      </c>
+      <c r="L80">
+        <v>36</v>
+      </c>
+      <c r="M80">
+        <v>11</v>
+      </c>
+      <c r="N80">
+        <v>110</v>
+      </c>
+      <c r="O80">
+        <v>6.72</v>
+      </c>
+      <c r="P80">
+        <v>4.18</v>
+      </c>
+      <c r="Q80">
+        <v>210</v>
+      </c>
+      <c r="R80">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <v>10</v>
+      </c>
+      <c r="W80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81">
+        <v>2018</v>
+      </c>
+      <c r="C81">
+        <v>22</v>
+      </c>
+      <c r="D81">
+        <v>187.96</v>
+      </c>
+      <c r="E81">
+        <v>89.357624</v>
+      </c>
+      <c r="F81">
+        <v>139</v>
+      </c>
+      <c r="G81">
+        <v>2640</v>
+      </c>
+      <c r="H81">
+        <v>18.99280575539568</v>
+      </c>
+      <c r="I81">
+        <v>18</v>
+      </c>
+      <c r="J81">
+        <v>26</v>
+      </c>
+      <c r="K81">
+        <v>4.55</v>
+      </c>
+      <c r="L81">
+        <v>37</v>
+      </c>
+      <c r="M81">
+        <v>9</v>
+      </c>
+      <c r="N81">
+        <v>121</v>
+      </c>
+      <c r="O81">
+        <v>6.89</v>
+      </c>
+      <c r="P81">
+        <v>4.23</v>
+      </c>
+      <c r="Q81">
+        <v>208</v>
+      </c>
+      <c r="R81">
+        <v>58.1</v>
+      </c>
+      <c r="S81">
+        <v>1.4</v>
+      </c>
+      <c r="T81">
+        <v>7</v>
+      </c>
+      <c r="W81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <v>2018</v>
+      </c>
+      <c r="C82">
+        <v>21</v>
+      </c>
+      <c r="D82">
+        <v>195.58</v>
+      </c>
+      <c r="E82">
+        <v>97.06868799999999</v>
+      </c>
+      <c r="F82">
+        <v>92</v>
+      </c>
+      <c r="G82">
+        <v>1484</v>
+      </c>
+      <c r="H82">
+        <v>16.1304347826087</v>
+      </c>
+      <c r="I82">
+        <v>13</v>
+      </c>
+      <c r="J82">
+        <v>26</v>
+      </c>
+      <c r="K82">
+        <v>4.48</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="Q82">
+        <v>207</v>
+      </c>
+      <c r="R82">
+        <v>64.2</v>
+      </c>
+      <c r="S82">
+        <v>1.6</v>
+      </c>
+      <c r="T82">
+        <v>8</v>
+      </c>
+      <c r="W82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
+      <c r="A83" t="s">
+        <v>103</v>
+      </c>
+      <c r="B83">
+        <v>2018</v>
+      </c>
+      <c r="C83">
+        <v>22</v>
+      </c>
+      <c r="D83">
+        <v>182.88</v>
+      </c>
+      <c r="E83">
+        <v>83.460928</v>
+      </c>
+      <c r="F83">
+        <v>28</v>
+      </c>
+      <c r="G83">
+        <v>232</v>
+      </c>
+      <c r="H83">
+        <v>8.285714285714286</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>21</v>
+      </c>
+      <c r="K83">
+        <v>4.5</v>
+      </c>
+      <c r="L83">
+        <v>39</v>
+      </c>
+      <c r="N83">
+        <v>122</v>
+      </c>
+      <c r="O83">
+        <v>7.03</v>
+      </c>
+      <c r="P83">
+        <v>4.25</v>
+      </c>
+      <c r="Q83">
+        <v>194</v>
+      </c>
+      <c r="R83">
+        <v>67.7</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>20</v>
+      </c>
+      <c r="W83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
+      <c r="A84" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84">
+        <v>2018</v>
+      </c>
+      <c r="C84">
+        <v>21</v>
+      </c>
+      <c r="D84">
+        <v>175.26</v>
+      </c>
+      <c r="E84">
+        <v>86.18248</v>
+      </c>
+      <c r="F84">
+        <v>127</v>
+      </c>
+      <c r="G84">
+        <v>1226</v>
+      </c>
+      <c r="H84">
+        <v>9.653543307086615</v>
+      </c>
+      <c r="I84">
+        <v>4</v>
+      </c>
+      <c r="J84">
+        <v>39</v>
+      </c>
+      <c r="K84">
+        <v>4.53</v>
+      </c>
+      <c r="L84">
+        <v>34.5</v>
+      </c>
+      <c r="M84">
+        <v>13</v>
+      </c>
+      <c r="N84">
+        <v>113</v>
+      </c>
+      <c r="Q84">
+        <v>187</v>
+      </c>
+      <c r="R84">
+        <v>69.40000000000001</v>
+      </c>
+      <c r="S84">
+        <v>1.2</v>
+      </c>
+      <c r="T84">
+        <v>6</v>
+      </c>
+      <c r="W84">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
+      <c r="A85" t="s">
+        <v>105</v>
+      </c>
+      <c r="B85">
+        <v>2018</v>
+      </c>
+      <c r="C85">
+        <v>22</v>
+      </c>
+      <c r="D85">
+        <v>187.96</v>
+      </c>
+      <c r="E85">
+        <v>91.625584</v>
+      </c>
+      <c r="F85">
+        <v>130</v>
+      </c>
+      <c r="G85">
+        <v>2040</v>
+      </c>
+      <c r="H85">
+        <v>15.69230769230769</v>
+      </c>
+      <c r="I85">
+        <v>20</v>
+      </c>
+      <c r="J85">
+        <v>40</v>
+      </c>
+      <c r="K85">
+        <v>4.43</v>
+      </c>
+      <c r="L85">
+        <v>33.5</v>
+      </c>
+      <c r="M85">
+        <v>11</v>
+      </c>
+      <c r="N85">
+        <v>115</v>
+      </c>
+      <c r="O85">
+        <v>6.71</v>
+      </c>
+      <c r="P85">
+        <v>4.37</v>
+      </c>
+      <c r="Q85">
+        <v>185</v>
+      </c>
+      <c r="R85">
+        <v>55.6</v>
+      </c>
+      <c r="S85">
+        <v>0.2</v>
+      </c>
+      <c r="T85">
+        <v>1</v>
+      </c>
+      <c r="W85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
+      <c r="A86" t="s">
+        <v>106</v>
+      </c>
+      <c r="B86">
+        <v>2018</v>
+      </c>
+      <c r="C86">
+        <v>23</v>
+      </c>
+      <c r="D86">
+        <v>193.04</v>
+      </c>
+      <c r="E86">
+        <v>93.43995200000001</v>
+      </c>
+      <c r="F86">
+        <v>119</v>
+      </c>
+      <c r="G86">
+        <v>1832</v>
+      </c>
+      <c r="H86">
+        <v>15.39495798319328</v>
+      </c>
+      <c r="I86">
+        <v>12</v>
+      </c>
+      <c r="J86">
+        <v>39</v>
+      </c>
+      <c r="K86">
+        <v>4.37</v>
+      </c>
+      <c r="L86">
+        <v>30.5</v>
+      </c>
+      <c r="M86">
+        <v>15</v>
+      </c>
+      <c r="N86">
+        <v>124</v>
+      </c>
+      <c r="Q86">
+        <v>174</v>
+      </c>
+      <c r="R86">
+        <v>62.6</v>
+      </c>
+      <c r="S86">
+        <v>4.8</v>
+      </c>
+      <c r="T86">
+        <v>24</v>
+      </c>
+      <c r="W86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
+      <c r="A87" t="s">
+        <v>107</v>
+      </c>
+      <c r="B87">
+        <v>2018</v>
+      </c>
+      <c r="C87">
+        <v>22</v>
+      </c>
+      <c r="D87">
+        <v>187.96</v>
+      </c>
+      <c r="E87">
+        <v>97.52227999999999</v>
+      </c>
+      <c r="F87">
+        <v>286</v>
+      </c>
+      <c r="G87">
+        <v>3777</v>
+      </c>
+      <c r="H87">
+        <v>13.20629370629371</v>
+      </c>
+      <c r="I87">
+        <v>33</v>
+      </c>
+      <c r="J87">
+        <v>40</v>
+      </c>
+      <c r="K87">
+        <v>4.44</v>
+      </c>
+      <c r="L87">
+        <v>40</v>
+      </c>
+      <c r="M87">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>124</v>
+      </c>
+      <c r="O87">
+        <v>7.08</v>
+      </c>
+      <c r="P87">
+        <v>4.26</v>
+      </c>
+      <c r="Q87">
+        <v>265</v>
+      </c>
+      <c r="R87">
+        <v>52.7</v>
+      </c>
+      <c r="S87">
+        <v>1</v>
+      </c>
+      <c r="T87">
+        <v>5</v>
+      </c>
+      <c r="W87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
+      <c r="A88" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88">
+        <v>2018</v>
+      </c>
+      <c r="C88">
+        <v>22</v>
+      </c>
+      <c r="D88">
+        <v>195.58</v>
+      </c>
+      <c r="E88">
+        <v>102.965384</v>
+      </c>
+      <c r="F88">
+        <v>241</v>
+      </c>
+      <c r="G88">
+        <v>3360</v>
+      </c>
+      <c r="H88">
+        <v>13.94190871369295</v>
+      </c>
+      <c r="I88">
+        <v>26</v>
+      </c>
+      <c r="J88">
+        <v>48</v>
+      </c>
+      <c r="K88">
+        <v>4.55</v>
+      </c>
+      <c r="L88">
+        <v>38</v>
+      </c>
+      <c r="M88">
+        <v>17</v>
+      </c>
+      <c r="N88">
+        <v>122</v>
+      </c>
+      <c r="Q88">
+        <v>265</v>
+      </c>
+      <c r="R88">
+        <v>69</v>
+      </c>
+      <c r="S88">
+        <v>4.2</v>
+      </c>
+      <c r="T88">
+        <v>21</v>
+      </c>
+      <c r="W88">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W59">
-    <sortCondition ref="A2:A59"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/activeStats.xlsx
+++ b/data/activeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victornorris/Code/projects/DraftPredictor/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096952AC-02C0-B244-A20D-C86BAB3172AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4FD1BE-70C6-DC42-AE1B-541ED110F2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="202">
   <si>
     <t>Name</t>
   </si>
@@ -555,6 +555,90 @@
   </si>
   <si>
     <t>Yac</t>
+  </si>
+  <si>
+    <t>Drake London</t>
+  </si>
+  <si>
+    <t>Garret Wilson</t>
+  </si>
+  <si>
+    <t>Chris Olave</t>
+  </si>
+  <si>
+    <t>Jameson Williams</t>
+  </si>
+  <si>
+    <t>Jahan Dotson</t>
+  </si>
+  <si>
+    <t>Treylon Burks</t>
+  </si>
+  <si>
+    <t>Christian Watson</t>
+  </si>
+  <si>
+    <t>Wan'Dale Robinson</t>
+  </si>
+  <si>
+    <t>John Metchie</t>
+  </si>
+  <si>
+    <t>Tyquan Thornton</t>
+  </si>
+  <si>
+    <t>George Pickens</t>
+  </si>
+  <si>
+    <t>Alec Pierce</t>
+  </si>
+  <si>
+    <t>Skyy moore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Velus Jones Jr. </t>
+  </si>
+  <si>
+    <t>Jalen Tolbert</t>
+  </si>
+  <si>
+    <t>David Bell</t>
+  </si>
+  <si>
+    <t>Danny Gray</t>
+  </si>
+  <si>
+    <t>Erik Ezukanma</t>
+  </si>
+  <si>
+    <t>Romeo Doubs</t>
+  </si>
+  <si>
+    <t>Calvin Austin</t>
+  </si>
+  <si>
+    <t>Khalil Shakir</t>
+  </si>
+  <si>
+    <t>Montrell Washington</t>
+  </si>
+  <si>
+    <t>Kyle Philips</t>
+  </si>
+  <si>
+    <t>Jalen Nailor</t>
+  </si>
+  <si>
+    <t>Michael Woods II</t>
+  </si>
+  <si>
+    <t>Bo Melton</t>
+  </si>
+  <si>
+    <t>Samori Toure</t>
+  </si>
+  <si>
+    <t>6'5</t>
   </si>
 </sst>
 </file>
@@ -640,7 +724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -651,7 +735,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -957,11 +1040,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y140"/>
+  <dimension ref="A1:Y168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R29" sqref="R29"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1223,7 @@
         <v>0</v>
       </c>
       <c r="Y2">
-        <f ca="1">YEAR(TODAY())-B2</f>
+        <f t="shared" ref="Y2:Y33" ca="1" si="0">YEAR(TODAY())-B2</f>
         <v>6</v>
       </c>
     </row>
@@ -1219,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Y3">
-        <f ca="1">YEAR(TODAY())-B3</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1273,7 +1356,7 @@
         <v>24</v>
       </c>
       <c r="S4">
-        <f t="shared" ref="S4:S15" si="0">R4/(F4+R4)</f>
+        <f t="shared" ref="S4:S15" si="1">R4/(F4+R4)</f>
         <v>0.10084033613445378</v>
       </c>
       <c r="T4">
@@ -1292,7 +1375,7 @@
         <v>6</v>
       </c>
       <c r="Y4">
-        <f ca="1">YEAR(TODAY())-B4</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1343,7 +1426,7 @@
         <v>10</v>
       </c>
       <c r="S5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10101010101010101</v>
       </c>
       <c r="T5">
@@ -1362,7 +1445,7 @@
         <v>5</v>
       </c>
       <c r="Y5">
-        <f ca="1">YEAR(TODAY())-B5</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1422,7 +1505,7 @@
         <v>18</v>
       </c>
       <c r="S6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10169491525423729</v>
       </c>
       <c r="T6">
@@ -1441,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="Y6">
-        <f ca="1">YEAR(TODAY())-B6</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1501,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="S7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="T7">
@@ -1520,7 +1603,7 @@
         <v>15</v>
       </c>
       <c r="Y7">
-        <f ca="1">YEAR(TODAY())-B7</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1580,7 +1663,7 @@
         <v>12</v>
       </c>
       <c r="S8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.3829787234042548E-2</v>
       </c>
       <c r="T8">
@@ -1599,7 +1682,7 @@
         <v>26</v>
       </c>
       <c r="Y8">
-        <f ca="1">YEAR(TODAY())-B8</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1653,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="S9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.0422535211267609E-2</v>
       </c>
       <c r="T9">
@@ -1672,7 +1755,7 @@
         <v>18</v>
       </c>
       <c r="Y9">
-        <f ca="1">YEAR(TODAY())-B9</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1732,7 +1815,7 @@
         <v>23</v>
       </c>
       <c r="S10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.2369477911646583E-2</v>
       </c>
       <c r="T10">
@@ -1751,7 +1834,7 @@
         <v>11</v>
       </c>
       <c r="Y10">
-        <f ca="1">YEAR(TODAY())-B10</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1811,7 +1894,7 @@
         <v>23</v>
       </c>
       <c r="S11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8122605363984668E-2</v>
       </c>
       <c r="T11">
@@ -1830,7 +1913,7 @@
         <v>12</v>
       </c>
       <c r="Y11">
-        <f ca="1">YEAR(TODAY())-B11</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1890,7 +1973,7 @@
         <v>20</v>
       </c>
       <c r="S12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.874015748031496E-2</v>
       </c>
       <c r="T12">
@@ -1909,7 +1992,7 @@
         <v>33</v>
       </c>
       <c r="Y12">
-        <f ca="1">YEAR(TODAY())-B12</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1951,7 +2034,7 @@
         <v>7</v>
       </c>
       <c r="S13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1176470588235294E-2</v>
       </c>
       <c r="T13">
@@ -1970,7 +2053,7 @@
         <v>9</v>
       </c>
       <c r="Y13">
-        <f ca="1">YEAR(TODAY())-B13</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2030,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="T14">
@@ -2049,7 +2132,7 @@
         <v>24</v>
       </c>
       <c r="Y14">
-        <f ca="1">YEAR(TODAY())-B14</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2109,7 +2192,7 @@
         <v>23</v>
       </c>
       <c r="S15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.3117408906882596E-2</v>
       </c>
       <c r="T15">
@@ -2128,7 +2211,7 @@
         <v>26</v>
       </c>
       <c r="Y15">
-        <f ca="1">YEAR(TODAY())-B15</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2188,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="S16">
-        <f>R16/(F16+R16)</f>
+        <f t="shared" ref="S16:S28" si="2">R16/(F16+R16)</f>
         <v>9.3167701863354033E-2</v>
       </c>
       <c r="T16">
@@ -2207,7 +2290,7 @@
         <v>39</v>
       </c>
       <c r="Y16">
-        <f ca="1">YEAR(TODAY())-B16</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2267,7 +2350,7 @@
         <v>6</v>
       </c>
       <c r="S17">
-        <f>R17/(F17+R17)</f>
+        <f t="shared" si="2"/>
         <v>4.2253521126760563E-2</v>
       </c>
       <c r="T17">
@@ -2286,7 +2369,7 @@
         <v>2</v>
       </c>
       <c r="Y17">
-        <f ca="1">YEAR(TODAY())-B17</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2337,7 +2420,7 @@
         <v>4</v>
       </c>
       <c r="S18">
-        <f>R18/(F18+R18)</f>
+        <f t="shared" si="2"/>
         <v>5.7971014492753624E-2</v>
       </c>
       <c r="T18">
@@ -2356,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="Y18">
-        <f ca="1">YEAR(TODAY())-B18</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2416,7 +2499,7 @@
         <v>18</v>
       </c>
       <c r="S19">
-        <f>R19/(F19+R19)</f>
+        <f t="shared" si="2"/>
         <v>6.8965517241379309E-2</v>
       </c>
       <c r="T19">
@@ -2435,7 +2518,7 @@
         <v>12</v>
       </c>
       <c r="Y19">
-        <f ca="1">YEAR(TODAY())-B19</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2495,7 +2578,7 @@
         <v>11</v>
       </c>
       <c r="S20">
-        <f>R20/(F20+R20)</f>
+        <f t="shared" si="2"/>
         <v>7.0063694267515922E-2</v>
       </c>
       <c r="T20">
@@ -2514,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="Y20">
-        <f ca="1">YEAR(TODAY())-B20</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2568,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="S21">
-        <f>R21/(F21+R21)</f>
+        <f t="shared" si="2"/>
         <v>0.10144927536231885</v>
       </c>
       <c r="T21">
@@ -2587,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="Y21">
-        <f ca="1">YEAR(TODAY())-B21</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2647,7 +2730,7 @@
         <v>7</v>
       </c>
       <c r="S22">
-        <f>R22/(F22+R22)</f>
+        <f t="shared" si="2"/>
         <v>6.5420560747663545E-2</v>
       </c>
       <c r="T22">
@@ -2666,7 +2749,7 @@
         <v>10</v>
       </c>
       <c r="Y22">
-        <f ca="1">YEAR(TODAY())-B22</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2726,7 +2809,7 @@
         <v>11</v>
       </c>
       <c r="S23">
-        <f>R23/(F23+R23)</f>
+        <f t="shared" si="2"/>
         <v>7.3333333333333334E-2</v>
       </c>
       <c r="T23">
@@ -2745,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="Y23">
-        <f ca="1">YEAR(TODAY())-B23</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2793,7 +2876,7 @@
         <v>6</v>
       </c>
       <c r="S24">
-        <f>R24/(F24+R24)</f>
+        <f t="shared" si="2"/>
         <v>6.1224489795918366E-2</v>
       </c>
       <c r="T24">
@@ -2812,7 +2895,7 @@
         <v>8</v>
       </c>
       <c r="Y24">
-        <f ca="1">YEAR(TODAY())-B24</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2869,7 +2952,7 @@
         <v>4</v>
       </c>
       <c r="S25">
-        <f>R25/(F25+R25)</f>
+        <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
       <c r="T25">
@@ -2888,7 +2971,7 @@
         <v>20</v>
       </c>
       <c r="Y25">
-        <f ca="1">YEAR(TODAY())-B25</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -2942,7 +3025,7 @@
         <v>5</v>
       </c>
       <c r="S26">
-        <f>R26/(F26+R26)</f>
+        <f t="shared" si="2"/>
         <v>3.787878787878788E-2</v>
       </c>
       <c r="T26">
@@ -2961,7 +3044,7 @@
         <v>6</v>
       </c>
       <c r="Y26">
-        <f ca="1">YEAR(TODAY())-B26</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3021,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="S27">
-        <f>R27/(F27+R27)</f>
+        <f t="shared" si="2"/>
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="T27">
@@ -3040,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="Y27">
-        <f ca="1">YEAR(TODAY())-B27</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3094,7 +3177,7 @@
         <v>16</v>
       </c>
       <c r="S28">
-        <f>R28/(F28+R28)</f>
+        <f t="shared" si="2"/>
         <v>0.11851851851851852</v>
       </c>
       <c r="T28">
@@ -3113,7 +3196,7 @@
         <v>24</v>
       </c>
       <c r="Y28">
-        <f ca="1">YEAR(TODAY())-B28</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3182,7 +3265,7 @@
         <v>5</v>
       </c>
       <c r="Y29">
-        <f ca="1">YEAR(TODAY())-B29</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3236,7 +3319,7 @@
         <v>29</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" ref="S30:S93" si="1">R30/(F30+R30)</f>
+        <f t="shared" ref="S30:S93" si="3">R30/(F30+R30)</f>
         <v>0.10740740740740741</v>
       </c>
       <c r="T30" s="4">
@@ -3255,7 +3338,7 @@
         <v>21</v>
       </c>
       <c r="Y30" s="4">
-        <f ca="1">YEAR(TODAY())-B30</f>
+        <f t="shared" ca="1" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -3305,14 +3388,14 @@
       <c r="Q31">
         <v>40</v>
       </c>
-      <c r="R31" s="9">
+      <c r="R31">
         <v>14</v>
       </c>
-      <c r="S31" s="8">
-        <f t="shared" si="1"/>
+      <c r="S31">
+        <f t="shared" si="3"/>
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="T31" s="9">
+      <c r="T31">
         <v>1425</v>
       </c>
       <c r="U31">
@@ -3328,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="Y31">
-        <f ca="1">YEAR(TODAY())-B31</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3384,14 +3467,14 @@
       <c r="Q32">
         <v>40</v>
       </c>
-      <c r="R32" s="9">
+      <c r="R32">
         <v>20</v>
       </c>
-      <c r="S32" s="8">
-        <f t="shared" si="1"/>
+      <c r="S32">
+        <f t="shared" si="3"/>
         <v>7.9681274900398405E-2</v>
       </c>
-      <c r="T32" s="9">
+      <c r="T32">
         <v>1489</v>
       </c>
       <c r="U32">
@@ -3407,7 +3490,7 @@
         <v>4</v>
       </c>
       <c r="Y32">
-        <f ca="1">YEAR(TODAY())-B32</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3463,14 +3546,14 @@
       <c r="Q33">
         <v>40</v>
       </c>
-      <c r="R33" s="9">
+      <c r="R33">
         <v>7</v>
       </c>
-      <c r="S33" s="8">
-        <f t="shared" si="1"/>
+      <c r="S33">
+        <f t="shared" si="3"/>
         <v>9.45945945945946E-2</v>
       </c>
-      <c r="T33" s="9">
+      <c r="T33">
         <v>467</v>
       </c>
       <c r="U33">
@@ -3486,7 +3569,7 @@
         <v>37</v>
       </c>
       <c r="Y33">
-        <f ca="1">YEAR(TODAY())-B33</f>
+        <f t="shared" ca="1" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -3542,14 +3625,14 @@
       <c r="Q34">
         <v>40</v>
       </c>
-      <c r="R34" s="9">
+      <c r="R34">
         <v>12</v>
       </c>
-      <c r="S34" s="8">
-        <f t="shared" si="1"/>
+      <c r="S34">
+        <f t="shared" si="3"/>
         <v>0.13186813186813187</v>
       </c>
-      <c r="T34" s="9">
+      <c r="T34">
         <v>575</v>
       </c>
       <c r="U34">
@@ -3565,7 +3648,7 @@
         <v>20</v>
       </c>
       <c r="Y34">
-        <f ca="1">YEAR(TODAY())-B34</f>
+        <f t="shared" ref="Y34:Y65" ca="1" si="4">YEAR(TODAY())-B34</f>
         <v>5</v>
       </c>
     </row>
@@ -3621,14 +3704,14 @@
       <c r="Q35">
         <v>40</v>
       </c>
-      <c r="R35" s="9">
+      <c r="R35">
         <v>11</v>
       </c>
-      <c r="S35" s="8">
-        <f t="shared" si="1"/>
+      <c r="S35">
+        <f t="shared" si="3"/>
         <v>6.9182389937106917E-2</v>
       </c>
-      <c r="T35" s="9">
+      <c r="T35">
         <v>1244</v>
       </c>
       <c r="U35">
@@ -3644,7 +3727,7 @@
         <v>33</v>
       </c>
       <c r="Y35">
-        <f ca="1">YEAR(TODAY())-B35</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3700,14 +3783,14 @@
       <c r="Q36">
         <v>40</v>
       </c>
-      <c r="R36" s="9">
+      <c r="R36">
         <v>16</v>
       </c>
-      <c r="S36" s="8">
-        <f t="shared" si="1"/>
+      <c r="S36">
+        <f t="shared" si="3"/>
         <v>0.10596026490066225</v>
       </c>
-      <c r="T36" s="9">
+      <c r="T36">
         <v>1041</v>
       </c>
       <c r="U36">
@@ -3723,7 +3806,7 @@
         <v>28</v>
       </c>
       <c r="Y36">
-        <f ca="1">YEAR(TODAY())-B36</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3779,14 +3862,14 @@
       <c r="Q37">
         <v>15</v>
       </c>
-      <c r="R37" s="9">
+      <c r="R37">
         <v>13</v>
       </c>
-      <c r="S37" s="8">
-        <f t="shared" si="1"/>
+      <c r="S37">
+        <f t="shared" si="3"/>
         <v>7.18232044198895E-2</v>
       </c>
-      <c r="T37" s="9">
+      <c r="T37">
         <v>881</v>
       </c>
       <c r="U37">
@@ -3802,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <f ca="1">YEAR(TODAY())-B37</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3852,14 +3935,14 @@
       <c r="Q38">
         <v>25</v>
       </c>
-      <c r="R38" s="9">
+      <c r="R38">
         <v>16</v>
       </c>
-      <c r="S38" s="8">
-        <f t="shared" si="1"/>
+      <c r="S38">
+        <f t="shared" si="3"/>
         <v>0.12698412698412698</v>
       </c>
-      <c r="T38" s="9">
+      <c r="T38">
         <v>699</v>
       </c>
       <c r="U38">
@@ -3875,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <f ca="1">YEAR(TODAY())-B38</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3931,14 +4014,14 @@
       <c r="Q39">
         <v>2</v>
       </c>
-      <c r="R39" s="9">
+      <c r="R39">
         <v>10</v>
       </c>
-      <c r="S39" s="8">
-        <f t="shared" si="1"/>
+      <c r="S39">
+        <f t="shared" si="3"/>
         <v>5.1020408163265307E-2</v>
       </c>
-      <c r="T39" s="9">
+      <c r="T39">
         <v>791</v>
       </c>
       <c r="U39">
@@ -3954,7 +4037,7 @@
         <v>20</v>
       </c>
       <c r="Y39">
-        <f ca="1">YEAR(TODAY())-B39</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -3995,14 +4078,14 @@
       <c r="Q40">
         <v>40</v>
       </c>
-      <c r="R40" s="9">
+      <c r="R40">
         <v>11</v>
       </c>
-      <c r="S40" s="8">
-        <f t="shared" si="1"/>
+      <c r="S40">
+        <f t="shared" si="3"/>
         <v>7.5342465753424653E-2</v>
       </c>
-      <c r="T40" s="9">
+      <c r="T40">
         <v>508</v>
       </c>
       <c r="U40">
@@ -4018,7 +4101,7 @@
         <v>2</v>
       </c>
       <c r="Y40">
-        <f ca="1">YEAR(TODAY())-B40</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4062,8 +4145,8 @@
       <c r="R41">
         <v>2</v>
       </c>
-      <c r="S41" s="8">
-        <f t="shared" si="1"/>
+      <c r="S41">
+        <f t="shared" si="3"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="T41">
@@ -4082,7 +4165,7 @@
         <v>1</v>
       </c>
       <c r="Y41">
-        <f ca="1">YEAR(TODAY())-B41</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4141,11 +4224,11 @@
       <c r="R42">
         <v>19</v>
       </c>
-      <c r="S42" s="8">
-        <f t="shared" si="1"/>
+      <c r="S42">
+        <f t="shared" si="3"/>
         <v>6.4625850340136057E-2</v>
       </c>
-      <c r="T42" s="9">
+      <c r="T42">
         <v>1436</v>
       </c>
       <c r="U42">
@@ -4161,7 +4244,7 @@
         <v>4</v>
       </c>
       <c r="Y42">
-        <f ca="1">YEAR(TODAY())-B42</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4220,11 +4303,11 @@
       <c r="R43">
         <v>9</v>
       </c>
-      <c r="S43" s="8">
-        <f t="shared" si="1"/>
+      <c r="S43">
+        <f t="shared" si="3"/>
         <v>4.8387096774193547E-2</v>
       </c>
-      <c r="T43" s="9">
+      <c r="T43">
         <v>665</v>
       </c>
       <c r="U43">
@@ -4240,7 +4323,7 @@
         <v>3</v>
       </c>
       <c r="Y43">
-        <f ca="1">YEAR(TODAY())-B43</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4284,11 +4367,11 @@
       <c r="R44">
         <v>14</v>
       </c>
-      <c r="S44" s="8">
-        <f t="shared" si="1"/>
+      <c r="S44">
+        <f t="shared" si="3"/>
         <v>9.5890410958904104E-2</v>
       </c>
-      <c r="T44" s="9">
+      <c r="T44">
         <v>1250</v>
       </c>
       <c r="U44">
@@ -4304,7 +4387,7 @@
         <v>29</v>
       </c>
       <c r="Y44">
-        <f ca="1">YEAR(TODAY())-B44</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4357,11 +4440,11 @@
       <c r="R45">
         <v>7</v>
       </c>
-      <c r="S45" s="8">
-        <f t="shared" si="1"/>
+      <c r="S45">
+        <f t="shared" si="3"/>
         <v>0.1044776119402985</v>
       </c>
-      <c r="T45" s="9">
+      <c r="T45">
         <v>520</v>
       </c>
       <c r="U45">
@@ -4377,7 +4460,7 @@
         <v>22</v>
       </c>
       <c r="Y45">
-        <f ca="1">YEAR(TODAY())-B45</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4436,11 +4519,11 @@
       <c r="R46">
         <v>7</v>
       </c>
-      <c r="S46" s="8">
-        <f t="shared" si="1"/>
+      <c r="S46">
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="T46" s="9">
+      <c r="T46">
         <v>289</v>
       </c>
       <c r="U46">
@@ -4456,7 +4539,7 @@
         <v>6</v>
       </c>
       <c r="Y46">
-        <f ca="1">YEAR(TODAY())-B46</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4509,11 +4592,11 @@
       <c r="R47">
         <v>14</v>
       </c>
-      <c r="S47" s="8">
-        <f t="shared" si="1"/>
+      <c r="S47">
+        <f t="shared" si="3"/>
         <v>6.1674008810572688E-2</v>
       </c>
-      <c r="T47" s="9">
+      <c r="T47">
         <v>1287</v>
       </c>
       <c r="U47">
@@ -4529,7 +4612,7 @@
         <v>7</v>
       </c>
       <c r="Y47">
-        <f ca="1">YEAR(TODAY())-B47</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4588,11 +4671,11 @@
       <c r="R48">
         <v>12</v>
       </c>
-      <c r="S48" s="8">
-        <f t="shared" si="1"/>
+      <c r="S48">
+        <f t="shared" si="3"/>
         <v>8.7591240875912413E-2</v>
       </c>
-      <c r="T48" s="9">
+      <c r="T48">
         <v>534</v>
       </c>
       <c r="U48">
@@ -4608,7 +4691,7 @@
         <v>5</v>
       </c>
       <c r="Y48">
-        <f ca="1">YEAR(TODAY())-B48</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4664,11 +4747,11 @@
       <c r="R49">
         <v>13</v>
       </c>
-      <c r="S49" s="8">
-        <f t="shared" si="1"/>
+      <c r="S49">
+        <f t="shared" si="3"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="T49" s="9">
+      <c r="T49">
         <v>1356</v>
       </c>
       <c r="U49">
@@ -4684,7 +4767,7 @@
         <v>9</v>
       </c>
       <c r="Y49">
-        <f ca="1">YEAR(TODAY())-B49</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4743,11 +4826,11 @@
       <c r="R50">
         <v>9</v>
       </c>
-      <c r="S50" s="8">
-        <f t="shared" si="1"/>
+      <c r="S50">
+        <f t="shared" si="3"/>
         <v>0.11538461538461539</v>
       </c>
-      <c r="T50" s="9">
+      <c r="T50">
         <v>241</v>
       </c>
       <c r="U50">
@@ -4763,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="Y50">
-        <f ca="1">YEAR(TODAY())-B50</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4822,11 +4905,11 @@
       <c r="R51">
         <v>17</v>
       </c>
-      <c r="S51" s="8">
-        <f t="shared" si="1"/>
+      <c r="S51">
+        <f t="shared" si="3"/>
         <v>7.3275862068965511E-2</v>
       </c>
-      <c r="T51" s="9">
+      <c r="T51">
         <v>1246</v>
       </c>
       <c r="U51">
@@ -4842,7 +4925,7 @@
         <v>9</v>
       </c>
       <c r="Y51">
-        <f ca="1">YEAR(TODAY())-B51</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4895,11 +4978,11 @@
       <c r="R52">
         <v>9</v>
       </c>
-      <c r="S52" s="8">
-        <f t="shared" si="1"/>
+      <c r="S52">
+        <f t="shared" si="3"/>
         <v>6.2937062937062943E-2</v>
       </c>
-      <c r="T52" s="9">
+      <c r="T52">
         <v>761</v>
       </c>
       <c r="U52">
@@ -4915,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="Y52">
-        <f ca="1">YEAR(TODAY())-B52</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -4974,11 +5057,11 @@
       <c r="R53">
         <v>8</v>
       </c>
-      <c r="S53" s="8">
-        <f t="shared" si="1"/>
+      <c r="S53">
+        <f t="shared" si="3"/>
         <v>9.6385542168674704E-2</v>
       </c>
-      <c r="T53" s="9">
+      <c r="T53">
         <v>353</v>
       </c>
       <c r="U53">
@@ -4994,7 +5077,7 @@
         <v>31</v>
       </c>
       <c r="Y53">
-        <f ca="1">YEAR(TODAY())-B53</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5048,7 +5131,7 @@
         <v>17</v>
       </c>
       <c r="S54" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.11724137931034483</v>
       </c>
       <c r="T54" s="4">
@@ -5067,7 +5150,7 @@
         <v>4</v>
       </c>
       <c r="Y54" s="4">
-        <f ca="1">YEAR(TODAY())-B54</f>
+        <f t="shared" ca="1" si="4"/>
         <v>5</v>
       </c>
     </row>
@@ -5123,14 +5206,14 @@
       <c r="Q55">
         <v>40</v>
       </c>
-      <c r="R55" s="9">
+      <c r="R55">
         <v>11</v>
       </c>
-      <c r="S55" s="8">
-        <f t="shared" si="1"/>
+      <c r="S55">
+        <f t="shared" si="3"/>
         <v>6.8322981366459631E-2</v>
       </c>
-      <c r="T55" s="9">
+      <c r="T55">
         <v>891</v>
       </c>
       <c r="U55">
@@ -5147,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="Y55">
-        <f ca="1">YEAR(TODAY())-B55</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5188,14 +5271,14 @@
       <c r="Q56">
         <v>40</v>
       </c>
-      <c r="R56" s="9">
+      <c r="R56">
         <v>8</v>
       </c>
-      <c r="S56" s="8">
-        <f t="shared" si="1"/>
+      <c r="S56">
+        <f t="shared" si="3"/>
         <v>7.5471698113207544E-2</v>
       </c>
-      <c r="T56" s="9">
+      <c r="T56">
         <v>966</v>
       </c>
       <c r="U56">
@@ -5205,14 +5288,14 @@
         <v>80.099999999999994</v>
       </c>
       <c r="W56">
-        <f t="shared" ref="W56:W87" ca="1" si="2">X56/Y56</f>
+        <f t="shared" ref="W56:W87" ca="1" si="5">X56/Y56</f>
         <v>9.75</v>
       </c>
       <c r="X56">
         <v>39</v>
       </c>
       <c r="Y56">
-        <f ca="1">YEAR(TODAY())-B56</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5253,14 +5336,14 @@
       <c r="Q57">
         <v>40</v>
       </c>
-      <c r="R57" s="9">
+      <c r="R57">
         <v>20</v>
       </c>
-      <c r="S57" s="8">
-        <f t="shared" si="1"/>
+      <c r="S57">
+        <f t="shared" si="3"/>
         <v>7.874015748031496E-2</v>
       </c>
-      <c r="T57" s="9">
+      <c r="T57">
         <v>1436</v>
       </c>
       <c r="U57">
@@ -5270,14 +5353,14 @@
         <v>69.5</v>
       </c>
       <c r="W57">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.5</v>
       </c>
       <c r="X57">
         <v>6</v>
       </c>
       <c r="Y57">
-        <f ca="1">YEAR(TODAY())-B57</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5327,14 +5410,14 @@
       <c r="Q58">
         <v>7</v>
       </c>
-      <c r="R58" s="9">
+      <c r="R58">
         <v>12</v>
       </c>
-      <c r="S58" s="8">
-        <f t="shared" si="1"/>
+      <c r="S58">
+        <f t="shared" si="3"/>
         <v>6.4864864864864868E-2</v>
       </c>
-      <c r="T58" s="9">
+      <c r="T58">
         <v>1526</v>
       </c>
       <c r="U58">
@@ -5344,14 +5427,14 @@
         <v>71.599999999999994</v>
       </c>
       <c r="W58">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>13.25</v>
       </c>
       <c r="X58">
         <v>53</v>
       </c>
       <c r="Y58">
-        <f ca="1">YEAR(TODAY())-B58</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5401,14 +5484,14 @@
       <c r="Q59">
         <v>12</v>
       </c>
-      <c r="R59" s="9">
+      <c r="R59">
         <v>18</v>
       </c>
-      <c r="S59" s="8">
-        <f t="shared" si="1"/>
+      <c r="S59">
+        <f t="shared" si="3"/>
         <v>0.10714285714285714</v>
       </c>
-      <c r="T59" s="9">
+      <c r="T59">
         <v>808</v>
       </c>
       <c r="U59">
@@ -5418,14 +5501,14 @@
         <v>75.5</v>
       </c>
       <c r="W59">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
       <c r="X59">
         <v>20</v>
       </c>
       <c r="Y59">
-        <f ca="1">YEAR(TODAY())-B59</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5469,14 +5552,14 @@
       <c r="Q60">
         <v>25</v>
       </c>
-      <c r="R60" s="9">
+      <c r="R60">
         <v>11</v>
       </c>
-      <c r="S60" s="8">
-        <f t="shared" si="1"/>
+      <c r="S60">
+        <f t="shared" si="3"/>
         <v>5.5276381909547742E-2</v>
       </c>
-      <c r="T60" s="9">
+      <c r="T60">
         <v>721</v>
       </c>
       <c r="U60">
@@ -5486,14 +5569,14 @@
         <v>73.400000000000006</v>
       </c>
       <c r="W60">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.75</v>
       </c>
       <c r="X60">
         <v>3</v>
       </c>
       <c r="Y60">
-        <f ca="1">YEAR(TODAY())-B60</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5543,14 +5626,14 @@
       <c r="Q61">
         <v>40</v>
       </c>
-      <c r="R61" s="9">
+      <c r="R61">
         <v>23</v>
       </c>
-      <c r="S61" s="8">
-        <f t="shared" si="1"/>
+      <c r="S61">
+        <f t="shared" si="3"/>
         <v>0.12994350282485875</v>
       </c>
-      <c r="T61" s="9">
+      <c r="T61">
         <v>806</v>
       </c>
       <c r="U61">
@@ -5560,14 +5643,14 @@
         <v>68.7</v>
       </c>
       <c r="W61">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6.25</v>
       </c>
       <c r="X61">
         <v>25</v>
       </c>
       <c r="Y61">
-        <f ca="1">YEAR(TODAY())-B61</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5623,14 +5706,14 @@
       <c r="Q62">
         <v>13</v>
       </c>
-      <c r="R62" s="9">
+      <c r="R62">
         <v>24</v>
       </c>
-      <c r="S62" s="8">
-        <f t="shared" si="1"/>
+      <c r="S62">
+        <f t="shared" si="3"/>
         <v>0.11428571428571428</v>
       </c>
-      <c r="T62" s="9">
+      <c r="T62">
         <v>815</v>
       </c>
       <c r="U62">
@@ -5640,14 +5723,14 @@
         <v>69.400000000000006</v>
       </c>
       <c r="W62">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X62">
         <v>5</v>
       </c>
       <c r="Y62">
-        <f ca="1">YEAR(TODAY())-B62</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5700,14 +5783,14 @@
       <c r="Q63">
         <v>40</v>
       </c>
-      <c r="R63" s="9">
+      <c r="R63">
         <v>5</v>
       </c>
-      <c r="S63" s="8">
-        <f t="shared" si="1"/>
+      <c r="S63">
+        <f t="shared" si="3"/>
         <v>2.7624309392265192E-2</v>
       </c>
-      <c r="T63" s="9">
+      <c r="T63">
         <v>1115</v>
       </c>
       <c r="U63">
@@ -5717,14 +5800,14 @@
         <v>60.3</v>
       </c>
       <c r="W63">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="X63">
         <v>12</v>
       </c>
       <c r="Y63">
-        <f ca="1">YEAR(TODAY())-B63</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5780,14 +5863,14 @@
       <c r="Q64">
         <v>40</v>
       </c>
-      <c r="R64" s="9">
+      <c r="R64">
         <v>16</v>
       </c>
-      <c r="S64" s="8">
-        <f t="shared" si="1"/>
+      <c r="S64">
+        <f t="shared" si="3"/>
         <v>9.3023255813953487E-2</v>
       </c>
-      <c r="T64" s="9">
+      <c r="T64">
         <v>731</v>
       </c>
       <c r="U64">
@@ -5797,14 +5880,14 @@
         <v>55.4</v>
       </c>
       <c r="W64">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="X64">
         <v>0</v>
       </c>
       <c r="Y64">
-        <f ca="1">YEAR(TODAY())-B64</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5851,14 +5934,14 @@
       <c r="Q65">
         <v>18</v>
       </c>
-      <c r="R65" s="9">
+      <c r="R65">
         <v>8</v>
       </c>
-      <c r="S65" s="8">
-        <f t="shared" si="1"/>
+      <c r="S65">
+        <f t="shared" si="3"/>
         <v>7.2072072072072071E-2</v>
       </c>
-      <c r="T65" s="9">
+      <c r="T65">
         <v>572</v>
       </c>
       <c r="U65">
@@ -5868,14 +5951,14 @@
         <v>67.7</v>
       </c>
       <c r="W65">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4.75</v>
       </c>
       <c r="X65">
         <v>19</v>
       </c>
       <c r="Y65">
-        <f ca="1">YEAR(TODAY())-B65</f>
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -5931,14 +6014,14 @@
       <c r="Q66">
         <v>6</v>
       </c>
-      <c r="R66" s="9">
+      <c r="R66">
         <v>3</v>
       </c>
-      <c r="S66" s="8">
-        <f t="shared" si="1"/>
+      <c r="S66">
+        <f t="shared" si="3"/>
         <v>4.2253521126760563E-2</v>
       </c>
-      <c r="T66" s="9">
+      <c r="T66">
         <v>468</v>
       </c>
       <c r="U66">
@@ -5948,14 +6031,14 @@
         <v>55.3</v>
       </c>
       <c r="W66">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X66">
         <v>5</v>
       </c>
       <c r="Y66">
-        <f ca="1">YEAR(TODAY())-B66</f>
+        <f t="shared" ref="Y66:Y97" ca="1" si="6">YEAR(TODAY())-B66</f>
         <v>4</v>
       </c>
     </row>
@@ -6011,14 +6094,14 @@
       <c r="Q67">
         <v>40</v>
       </c>
-      <c r="R67" s="9">
+      <c r="R67">
         <v>16</v>
       </c>
-      <c r="S67" s="8">
-        <f t="shared" si="1"/>
+      <c r="S67">
+        <f t="shared" si="3"/>
         <v>9.2485549132947972E-2</v>
       </c>
-      <c r="T67" s="9">
+      <c r="T67">
         <v>663</v>
       </c>
       <c r="U67">
@@ -6028,14 +6111,14 @@
         <v>66.400000000000006</v>
       </c>
       <c r="W67">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6.75</v>
       </c>
       <c r="X67">
         <v>27</v>
       </c>
       <c r="Y67">
-        <f ca="1">YEAR(TODAY())-B67</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6082,14 +6165,14 @@
       <c r="Q68">
         <v>8</v>
       </c>
-      <c r="R68" s="9">
+      <c r="R68">
         <v>5</v>
       </c>
-      <c r="S68" s="8">
-        <f t="shared" si="1"/>
+      <c r="S68">
+        <f t="shared" si="3"/>
         <v>4.8543689320388349E-2</v>
       </c>
-      <c r="T68" s="9">
+      <c r="T68">
         <v>878</v>
       </c>
       <c r="U68">
@@ -6099,14 +6182,14 @@
         <v>54</v>
       </c>
       <c r="W68">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="X68">
         <v>8</v>
       </c>
       <c r="Y68">
-        <f ca="1">YEAR(TODAY())-B68</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6162,14 +6245,14 @@
       <c r="Q69">
         <v>40</v>
       </c>
-      <c r="R69" s="9">
+      <c r="R69">
         <v>3</v>
       </c>
-      <c r="S69" s="8">
-        <f t="shared" si="1"/>
+      <c r="S69">
+        <f t="shared" si="3"/>
         <v>1.6759776536312849E-2</v>
       </c>
-      <c r="T69" s="9">
+      <c r="T69">
         <v>557</v>
       </c>
       <c r="U69">
@@ -6179,14 +6262,14 @@
         <v>76.599999999999994</v>
       </c>
       <c r="W69">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X69">
         <v>5</v>
       </c>
       <c r="Y69">
-        <f ca="1">YEAR(TODAY())-B69</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6242,14 +6325,14 @@
       <c r="Q70">
         <v>40</v>
       </c>
-      <c r="R70" s="9">
+      <c r="R70">
         <v>16</v>
       </c>
-      <c r="S70" s="8">
-        <f t="shared" si="1"/>
+      <c r="S70">
+        <f t="shared" si="3"/>
         <v>9.7560975609756101E-2</v>
       </c>
-      <c r="T70" s="9">
+      <c r="T70">
         <v>837</v>
       </c>
       <c r="U70">
@@ -6259,14 +6342,14 @@
         <v>64</v>
       </c>
       <c r="W70">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.5</v>
       </c>
       <c r="X70">
         <v>10</v>
       </c>
       <c r="Y70">
-        <f ca="1">YEAR(TODAY())-B70</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6319,14 +6402,14 @@
       <c r="Q71">
         <v>40</v>
       </c>
-      <c r="R71" s="9">
+      <c r="R71">
         <v>9</v>
       </c>
-      <c r="S71" s="8">
-        <f t="shared" si="1"/>
+      <c r="S71">
+        <f t="shared" si="3"/>
         <v>2.903225806451613E-2</v>
       </c>
-      <c r="T71" s="9">
+      <c r="T71">
         <v>1704</v>
       </c>
       <c r="U71">
@@ -6336,14 +6419,14 @@
         <v>61.4</v>
       </c>
       <c r="W71">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.75</v>
       </c>
       <c r="X71">
         <v>3</v>
       </c>
       <c r="Y71">
-        <f ca="1">YEAR(TODAY())-B71</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6390,14 +6473,14 @@
       <c r="Q72">
         <v>40</v>
       </c>
-      <c r="R72" s="9">
+      <c r="R72">
         <v>16</v>
       </c>
-      <c r="S72" s="8">
-        <f t="shared" si="1"/>
+      <c r="S72">
+        <f t="shared" si="3"/>
         <v>9.8765432098765427E-2</v>
       </c>
-      <c r="T72" s="9">
+      <c r="T72">
         <v>1022</v>
       </c>
       <c r="U72">
@@ -6407,14 +6490,14 @@
         <v>66.3</v>
       </c>
       <c r="W72">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2.25</v>
       </c>
       <c r="X72">
         <v>9</v>
       </c>
       <c r="Y72">
-        <f ca="1">YEAR(TODAY())-B72</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6464,14 +6547,14 @@
       <c r="Q73">
         <v>8</v>
       </c>
-      <c r="R73" s="9">
+      <c r="R73">
         <v>13</v>
       </c>
-      <c r="S73" s="8">
-        <f t="shared" si="1"/>
+      <c r="S73">
+        <f t="shared" si="3"/>
         <v>7.5581395348837205E-2</v>
       </c>
-      <c r="T73" s="9">
+      <c r="T73">
         <v>1166</v>
       </c>
       <c r="U73">
@@ -6481,14 +6564,14 @@
         <v>65.2</v>
       </c>
       <c r="W73">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
       <c r="X73">
         <v>24</v>
       </c>
       <c r="Y73">
-        <f ca="1">YEAR(TODAY())-B73</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6538,14 +6621,14 @@
       <c r="Q74">
         <v>40</v>
       </c>
-      <c r="R74" s="9">
+      <c r="R74">
         <v>6</v>
       </c>
-      <c r="S74" s="8">
-        <f t="shared" si="1"/>
+      <c r="S74">
+        <f t="shared" si="3"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="T74" s="9">
+      <c r="T74">
         <v>940</v>
       </c>
       <c r="U74">
@@ -6555,14 +6638,14 @@
         <v>58.2</v>
       </c>
       <c r="W74">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="X74">
         <v>0</v>
       </c>
       <c r="Y74">
-        <f ca="1">YEAR(TODAY())-B74</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6615,14 +6698,14 @@
       <c r="Q75">
         <v>23</v>
       </c>
-      <c r="R75" s="9">
+      <c r="R75">
         <v>7</v>
       </c>
-      <c r="S75" s="8">
-        <f t="shared" si="1"/>
+      <c r="S75">
+        <f t="shared" si="3"/>
         <v>7.8651685393258425E-2</v>
       </c>
-      <c r="T75" s="9">
+      <c r="T75">
         <v>554</v>
       </c>
       <c r="U75">
@@ -6632,14 +6715,14 @@
         <v>50.5</v>
       </c>
       <c r="W75">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
       <c r="X75">
         <v>1</v>
       </c>
       <c r="Y75">
-        <f ca="1">YEAR(TODAY())-B75</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6686,14 +6769,14 @@
       <c r="Q76">
         <v>1</v>
       </c>
-      <c r="R76" s="9">
+      <c r="R76">
         <v>13</v>
       </c>
-      <c r="S76" s="8">
-        <f t="shared" si="1"/>
+      <c r="S76">
+        <f t="shared" si="3"/>
         <v>7.3033707865168537E-2</v>
       </c>
-      <c r="T76" s="9">
+      <c r="T76">
         <v>961</v>
       </c>
       <c r="U76">
@@ -6703,14 +6786,14 @@
         <v>90.4</v>
       </c>
       <c r="W76">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>12.25</v>
       </c>
       <c r="X76">
         <v>49</v>
       </c>
       <c r="Y76">
-        <f ca="1">YEAR(TODAY())-B76</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6760,14 +6843,14 @@
       <c r="Q77">
         <v>3</v>
       </c>
-      <c r="R77" s="9">
+      <c r="R77">
         <v>9</v>
       </c>
-      <c r="S77" s="8">
-        <f t="shared" si="1"/>
+      <c r="S77">
+        <f t="shared" si="3"/>
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="T77" s="9">
+      <c r="T77">
         <v>1251</v>
       </c>
       <c r="U77">
@@ -6777,14 +6860,14 @@
         <v>55</v>
       </c>
       <c r="W77">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.25</v>
       </c>
       <c r="X77">
         <v>1</v>
       </c>
       <c r="Y77">
-        <f ca="1">YEAR(TODAY())-B77</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6840,14 +6923,14 @@
       <c r="Q78">
         <v>40</v>
       </c>
-      <c r="R78" s="9">
+      <c r="R78">
         <v>14</v>
       </c>
-      <c r="S78" s="8">
-        <f t="shared" si="1"/>
+      <c r="S78">
+        <f t="shared" si="3"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="T78" s="9">
+      <c r="T78">
         <v>745</v>
       </c>
       <c r="U78">
@@ -6857,14 +6940,14 @@
         <v>65.099999999999994</v>
       </c>
       <c r="W78">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3.5</v>
       </c>
       <c r="X78">
         <v>14</v>
       </c>
       <c r="Y78">
-        <f ca="1">YEAR(TODAY())-B78</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6908,14 +6991,14 @@
       <c r="Q79">
         <v>9</v>
       </c>
-      <c r="R79" s="9">
+      <c r="R79">
         <v>15</v>
       </c>
-      <c r="S79" s="8">
-        <f t="shared" si="1"/>
+      <c r="S79">
+        <f t="shared" si="3"/>
         <v>0.13274336283185842</v>
       </c>
-      <c r="T79" s="9">
+      <c r="T79">
         <v>738</v>
       </c>
       <c r="U79">
@@ -6925,14 +7008,14 @@
         <v>55.9</v>
       </c>
       <c r="W79">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X79">
         <v>5</v>
       </c>
       <c r="Y79">
-        <f ca="1">YEAR(TODAY())-B79</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -6976,14 +7059,14 @@
       <c r="Q80">
         <v>40</v>
       </c>
-      <c r="R80" s="9">
+      <c r="R80">
         <v>8</v>
       </c>
-      <c r="S80" s="8">
-        <f t="shared" si="1"/>
+      <c r="S80">
+        <f t="shared" si="3"/>
         <v>5.0955414012738856E-2</v>
       </c>
-      <c r="T80" s="9">
+      <c r="T80">
         <v>1113</v>
       </c>
       <c r="U80">
@@ -6993,14 +7076,14 @@
         <v>71.5</v>
       </c>
       <c r="W80">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3.25</v>
       </c>
       <c r="X80">
         <v>13</v>
       </c>
       <c r="Y80">
-        <f ca="1">YEAR(TODAY())-B80</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7044,14 +7127,14 @@
       <c r="Q81">
         <v>40</v>
       </c>
-      <c r="R81" s="9">
+      <c r="R81">
         <v>12</v>
       </c>
-      <c r="S81" s="8">
-        <f t="shared" si="1"/>
+      <c r="S81">
+        <f t="shared" si="3"/>
         <v>9.5238095238095233E-2</v>
       </c>
-      <c r="T81" s="9">
+      <c r="T81">
         <v>852</v>
       </c>
       <c r="U81">
@@ -7061,14 +7144,14 @@
         <v>68.8</v>
       </c>
       <c r="W81">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>0.75</v>
       </c>
       <c r="X81">
         <v>3</v>
       </c>
       <c r="Y81">
-        <f ca="1">YEAR(TODAY())-B81</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7124,14 +7207,14 @@
       <c r="Q82">
         <v>40</v>
       </c>
-      <c r="R82" s="9">
+      <c r="R82">
         <v>5</v>
       </c>
-      <c r="S82" s="8">
-        <f t="shared" si="1"/>
+      <c r="S82">
+        <f t="shared" si="3"/>
         <v>2.8409090909090908E-2</v>
       </c>
-      <c r="T82" s="9">
+      <c r="T82">
         <v>909</v>
       </c>
       <c r="U82">
@@ -7141,14 +7224,14 @@
         <v>62.5</v>
       </c>
       <c r="W82">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8.5</v>
       </c>
       <c r="X82">
         <v>34</v>
       </c>
       <c r="Y82">
-        <f ca="1">YEAR(TODAY())-B82</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7201,14 +7284,14 @@
       <c r="Q83">
         <v>40</v>
       </c>
-      <c r="R83" s="9">
+      <c r="R83">
         <v>15</v>
       </c>
-      <c r="S83" s="8">
-        <f t="shared" si="1"/>
+      <c r="S83">
+        <f t="shared" si="3"/>
         <v>8.6206896551724144E-2</v>
       </c>
-      <c r="T83" s="9">
+      <c r="T83">
         <v>1235</v>
       </c>
       <c r="U83">
@@ -7218,14 +7301,14 @@
         <v>61.1</v>
       </c>
       <c r="W83">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3.25</v>
       </c>
       <c r="X83">
         <v>13</v>
       </c>
       <c r="Y83">
-        <f ca="1">YEAR(TODAY())-B83</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7281,14 +7364,14 @@
       <c r="Q84">
         <v>11</v>
       </c>
-      <c r="R84" s="9">
+      <c r="R84">
         <v>6</v>
       </c>
-      <c r="S84" s="8">
-        <f t="shared" si="1"/>
+      <c r="S84">
+        <f t="shared" si="3"/>
         <v>6.0606060606060608E-2</v>
       </c>
-      <c r="T84" s="9">
+      <c r="T84">
         <v>485</v>
       </c>
       <c r="U84">
@@ -7298,14 +7381,14 @@
         <v>64.8</v>
       </c>
       <c r="W84">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X84">
         <v>5</v>
       </c>
       <c r="Y84">
-        <f ca="1">YEAR(TODAY())-B84</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7346,14 +7429,14 @@
       <c r="Q85">
         <v>2</v>
       </c>
-      <c r="R85" s="9">
+      <c r="R85">
         <v>11</v>
       </c>
-      <c r="S85" s="8">
-        <f t="shared" si="1"/>
+      <c r="S85">
+        <f t="shared" si="3"/>
         <v>7.5342465753424653E-2</v>
       </c>
-      <c r="T85" s="9">
+      <c r="T85">
         <v>800</v>
       </c>
       <c r="U85">
@@ -7363,14 +7446,14 @@
         <v>75.900000000000006</v>
       </c>
       <c r="W85">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>8.25</v>
       </c>
       <c r="X85">
         <v>33</v>
       </c>
       <c r="Y85">
-        <f ca="1">YEAR(TODAY())-B85</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7411,14 +7494,14 @@
       <c r="Q86">
         <v>10</v>
       </c>
-      <c r="R86" s="9">
+      <c r="R86">
         <v>24</v>
       </c>
-      <c r="S86" s="8">
-        <f t="shared" si="1"/>
+      <c r="S86">
+        <f t="shared" si="3"/>
         <v>0.10126582278481013</v>
       </c>
-      <c r="T86" s="9">
+      <c r="T86">
         <v>1148</v>
       </c>
       <c r="U86">
@@ -7428,14 +7511,14 @@
         <v>59</v>
       </c>
       <c r="W86">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>1.25</v>
       </c>
       <c r="X86">
         <v>5</v>
       </c>
       <c r="Y86">
-        <f ca="1">YEAR(TODAY())-B86</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7480,7 +7563,7 @@
         <v>13</v>
       </c>
       <c r="S87" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9148936170212769E-2</v>
       </c>
       <c r="T87" s="4">
@@ -7493,14 +7576,14 @@
         <v>69.8</v>
       </c>
       <c r="W87" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3.75</v>
       </c>
       <c r="X87" s="4">
         <v>15</v>
       </c>
       <c r="Y87" s="4">
-        <f ca="1">YEAR(TODAY())-B87</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -7547,14 +7630,14 @@
       <c r="Q88">
         <v>12</v>
       </c>
-      <c r="R88" s="9">
+      <c r="R88">
         <v>23</v>
       </c>
-      <c r="S88" s="8">
-        <f t="shared" si="1"/>
+      <c r="S88">
+        <f t="shared" si="3"/>
         <v>9.5041322314049589E-2</v>
       </c>
-      <c r="T88" s="9">
+      <c r="T88">
         <v>1387</v>
       </c>
       <c r="U88">
@@ -7564,14 +7647,14 @@
         <v>68.599999999999994</v>
       </c>
       <c r="W88">
-        <f t="shared" ref="W88:W119" ca="1" si="3">X88/Y88</f>
+        <f t="shared" ref="W88:W119" ca="1" si="7">X88/Y88</f>
         <v>7</v>
       </c>
       <c r="X88">
         <v>7</v>
       </c>
       <c r="Y88">
-        <f ca="1">YEAR(TODAY())-B88</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7627,14 +7710,14 @@
       <c r="Q89">
         <v>3</v>
       </c>
-      <c r="R89" s="9">
+      <c r="R89">
         <v>15</v>
       </c>
-      <c r="S89" s="8">
-        <f t="shared" si="1"/>
+      <c r="S89">
+        <f t="shared" si="3"/>
         <v>9.375E-2</v>
       </c>
-      <c r="T89" s="9">
+      <c r="T89">
         <v>1101</v>
       </c>
       <c r="U89">
@@ -7644,14 +7727,14 @@
         <v>61.1</v>
       </c>
       <c r="W89">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="X89">
         <v>1</v>
       </c>
       <c r="Y89">
-        <f ca="1">YEAR(TODAY())-B89</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7701,14 +7784,14 @@
       <c r="Q90">
         <v>16</v>
       </c>
-      <c r="R90" s="9">
+      <c r="R90">
         <v>16</v>
       </c>
-      <c r="S90" s="8">
-        <f t="shared" si="1"/>
+      <c r="S90">
+        <f t="shared" si="3"/>
         <v>0.10884353741496598</v>
       </c>
-      <c r="T90" s="9">
+      <c r="T90">
         <v>831</v>
       </c>
       <c r="U90">
@@ -7718,14 +7801,14 @@
         <v>47.1</v>
       </c>
       <c r="W90">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="X90">
         <v>0</v>
       </c>
       <c r="Y90">
-        <f ca="1">YEAR(TODAY())-B90</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7778,14 +7861,14 @@
       <c r="Q91">
         <v>23</v>
       </c>
-      <c r="R91" s="9">
+      <c r="R91">
         <v>9</v>
       </c>
-      <c r="S91" s="8">
-        <f t="shared" si="1"/>
+      <c r="S91">
+        <f t="shared" si="3"/>
         <v>0.13432835820895522</v>
       </c>
-      <c r="T91" s="9">
+      <c r="T91">
         <v>306</v>
       </c>
       <c r="U91">
@@ -7795,14 +7878,14 @@
         <v>65.099999999999994</v>
       </c>
       <c r="W91">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="X91">
         <v>1</v>
       </c>
       <c r="Y91">
-        <f ca="1">YEAR(TODAY())-B91</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7846,14 +7929,14 @@
       <c r="Q92">
         <v>2</v>
       </c>
-      <c r="R92" s="9">
+      <c r="R92">
         <v>7</v>
       </c>
-      <c r="S92" s="8">
-        <f t="shared" ref="S92" si="4">R92/(F92+R92)</f>
+      <c r="S92">
+        <f t="shared" ref="S92" si="8">R92/(F92+R92)</f>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="T92" s="9">
+      <c r="T92">
         <v>842</v>
       </c>
       <c r="U92">
@@ -7863,14 +7946,14 @@
         <v>60.5</v>
       </c>
       <c r="W92">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X92">
         <v>2</v>
       </c>
       <c r="Y92">
-        <f ca="1">YEAR(TODAY())-B92</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7914,14 +7997,14 @@
       <c r="Q93">
         <v>40</v>
       </c>
-      <c r="R93" s="9">
+      <c r="R93">
         <v>22</v>
       </c>
-      <c r="S93" s="8">
-        <f t="shared" si="1"/>
+      <c r="S93">
+        <f t="shared" si="3"/>
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="T93" s="9">
+      <c r="T93">
         <v>1409</v>
       </c>
       <c r="U93">
@@ -7931,14 +8014,14 @@
         <v>83.4</v>
       </c>
       <c r="W93">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="X93">
         <v>6</v>
       </c>
       <c r="Y93">
-        <f ca="1">YEAR(TODAY())-B93</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -7985,14 +8068,14 @@
       <c r="Q94">
         <v>40</v>
       </c>
-      <c r="R94" s="9">
+      <c r="R94">
         <v>14</v>
       </c>
-      <c r="S94" s="8">
-        <f t="shared" ref="S94:S140" si="5">R94/(F94+R94)</f>
+      <c r="S94">
+        <f t="shared" ref="S94:S157" si="9">R94/(F94+R94)</f>
         <v>6.4814814814814811E-2</v>
       </c>
-      <c r="T94" s="9">
+      <c r="T94">
         <v>1164</v>
       </c>
       <c r="U94">
@@ -8002,14 +8085,14 @@
         <v>70.3</v>
       </c>
       <c r="W94">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>7</v>
       </c>
       <c r="X94">
         <v>7</v>
       </c>
       <c r="Y94">
-        <f ca="1">YEAR(TODAY())-B94</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8056,14 +8139,14 @@
       <c r="Q95">
         <v>40</v>
       </c>
-      <c r="R95" s="9">
+      <c r="R95">
         <v>23</v>
       </c>
-      <c r="S95" s="8">
-        <f t="shared" si="5"/>
+      <c r="S95">
+        <f t="shared" si="9"/>
         <v>0.1031390134529148</v>
       </c>
-      <c r="T95" s="9">
+      <c r="T95">
         <v>1344</v>
       </c>
       <c r="U95">
@@ -8073,14 +8156,14 @@
         <v>75.599999999999994</v>
       </c>
       <c r="W95">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>9</v>
       </c>
       <c r="X95">
         <v>9</v>
       </c>
       <c r="Y95">
-        <f ca="1">YEAR(TODAY())-B95</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8133,14 +8216,14 @@
       <c r="Q96">
         <v>40</v>
       </c>
-      <c r="R96" s="9">
+      <c r="R96">
         <v>7</v>
       </c>
-      <c r="S96" s="8">
-        <f t="shared" si="5"/>
+      <c r="S96">
+        <f t="shared" si="9"/>
         <v>7.2164948453608241E-2</v>
       </c>
-      <c r="T96" s="9">
+      <c r="T96">
         <v>473</v>
       </c>
       <c r="U96">
@@ -8150,14 +8233,14 @@
         <v>53.7</v>
       </c>
       <c r="W96">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="X96">
         <v>0</v>
       </c>
       <c r="Y96">
-        <f ca="1">YEAR(TODAY())-B96</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8210,14 +8293,14 @@
       <c r="Q97">
         <v>40</v>
       </c>
-      <c r="R97" s="9">
+      <c r="R97">
         <v>13</v>
       </c>
-      <c r="S97" s="8">
-        <f t="shared" si="5"/>
+      <c r="S97">
+        <f t="shared" si="9"/>
         <v>4.8689138576779027E-2</v>
       </c>
-      <c r="T97" s="9">
+      <c r="T97">
         <v>1331</v>
       </c>
       <c r="U97">
@@ -8227,14 +8310,14 @@
         <v>48</v>
       </c>
       <c r="W97">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="X97">
         <v>1</v>
       </c>
       <c r="Y97">
-        <f ca="1">YEAR(TODAY())-B97</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
     </row>
@@ -8281,14 +8364,14 @@
       <c r="Q98">
         <v>6</v>
       </c>
-      <c r="R98" s="9">
+      <c r="R98">
         <v>8</v>
       </c>
-      <c r="S98" s="8">
-        <f t="shared" si="5"/>
+      <c r="S98">
+        <f t="shared" si="9"/>
         <v>6.8965517241379309E-2</v>
       </c>
-      <c r="T98" s="9">
+      <c r="T98">
         <v>674</v>
       </c>
       <c r="U98">
@@ -8298,14 +8381,14 @@
         <v>59.7</v>
       </c>
       <c r="W98">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="X98">
         <v>3</v>
       </c>
       <c r="Y98">
-        <f ca="1">YEAR(TODAY())-B98</f>
+        <f t="shared" ref="Y98:Y129" ca="1" si="10">YEAR(TODAY())-B98</f>
         <v>1</v>
       </c>
     </row>
@@ -8352,14 +8435,14 @@
       <c r="Q99">
         <v>2</v>
       </c>
-      <c r="R99" s="9">
+      <c r="R99">
         <v>13</v>
       </c>
-      <c r="S99" s="8">
-        <f t="shared" si="5"/>
+      <c r="S99">
+        <f t="shared" si="9"/>
         <v>0.1015625</v>
       </c>
-      <c r="T99" s="9">
+      <c r="T99">
         <v>954</v>
       </c>
       <c r="U99">
@@ -8369,14 +8452,14 @@
         <v>58.9</v>
       </c>
       <c r="W99">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="X99">
         <v>4</v>
       </c>
       <c r="Y99">
-        <f ca="1">YEAR(TODAY())-B99</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8426,14 +8509,14 @@
       <c r="Q100">
         <v>40</v>
       </c>
-      <c r="R100" s="9">
+      <c r="R100">
         <v>6</v>
       </c>
-      <c r="S100" s="8">
-        <f t="shared" si="5"/>
+      <c r="S100">
+        <f t="shared" si="9"/>
         <v>3.870967741935484E-2</v>
       </c>
-      <c r="T100" s="9">
+      <c r="T100">
         <v>618</v>
       </c>
       <c r="U100">
@@ -8443,14 +8526,14 @@
         <v>65.8</v>
       </c>
       <c r="W100">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X100">
         <v>2</v>
       </c>
       <c r="Y100">
-        <f ca="1">YEAR(TODAY())-B100</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8500,14 +8583,14 @@
       <c r="Q101">
         <v>40</v>
       </c>
-      <c r="R101" s="9">
+      <c r="R101">
         <v>7</v>
       </c>
-      <c r="S101" s="8">
-        <f t="shared" si="5"/>
+      <c r="S101">
+        <f t="shared" si="9"/>
         <v>5.3846153846153849E-2</v>
       </c>
-      <c r="T101" s="9">
+      <c r="T101">
         <v>849</v>
       </c>
       <c r="U101">
@@ -8517,14 +8600,14 @@
         <v>63.1</v>
       </c>
       <c r="W101">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>5</v>
       </c>
       <c r="X101">
         <v>5</v>
       </c>
       <c r="Y101">
-        <f ca="1">YEAR(TODAY())-B101</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8574,14 +8657,14 @@
       <c r="Q102">
         <v>40</v>
       </c>
-      <c r="R102" s="9">
+      <c r="R102">
         <v>13</v>
       </c>
-      <c r="S102" s="8">
-        <f t="shared" si="5"/>
+      <c r="S102">
+        <f t="shared" si="9"/>
         <v>0.104</v>
       </c>
-      <c r="T102" s="9">
+      <c r="T102">
         <v>667</v>
       </c>
       <c r="U102">
@@ -8591,14 +8674,14 @@
         <v>54.7</v>
       </c>
       <c r="W102">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="X102">
         <v>3</v>
       </c>
       <c r="Y102">
-        <f ca="1">YEAR(TODAY())-B102</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8639,14 +8722,14 @@
       <c r="Q103">
         <v>40</v>
       </c>
-      <c r="R103" s="9">
+      <c r="R103">
         <v>10</v>
       </c>
-      <c r="S103" s="8">
-        <f t="shared" si="5"/>
+      <c r="S103">
+        <f t="shared" si="9"/>
         <v>8.5470085470085472E-2</v>
       </c>
-      <c r="T103" s="9">
+      <c r="T103">
         <v>763</v>
       </c>
       <c r="U103">
@@ -8656,14 +8739,14 @@
         <v>90.2</v>
       </c>
       <c r="W103">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>14</v>
       </c>
       <c r="X103">
         <v>14</v>
       </c>
       <c r="Y103">
-        <f ca="1">YEAR(TODAY())-B103</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8704,14 +8787,14 @@
       <c r="Q104">
         <v>40</v>
       </c>
-      <c r="R104" s="9">
+      <c r="R104">
         <v>18</v>
       </c>
-      <c r="S104" s="8">
-        <f t="shared" si="5"/>
+      <c r="S104">
+        <f t="shared" si="9"/>
         <v>0.13846153846153847</v>
       </c>
-      <c r="T104" s="9">
+      <c r="T104">
         <v>604</v>
       </c>
       <c r="U104">
@@ -8721,14 +8804,14 @@
         <v>52.7</v>
       </c>
       <c r="W104">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="X104">
         <v>4</v>
       </c>
       <c r="Y104">
-        <f ca="1">YEAR(TODAY())-B104</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8775,14 +8858,14 @@
       <c r="Q105">
         <v>40</v>
       </c>
-      <c r="R105" s="9">
+      <c r="R105">
         <v>20</v>
       </c>
-      <c r="S105" s="8">
-        <f t="shared" si="5"/>
+      <c r="S105">
+        <f t="shared" si="9"/>
         <v>0.10471204188481675</v>
       </c>
-      <c r="T105" s="9">
+      <c r="T105">
         <v>529</v>
       </c>
       <c r="U105">
@@ -8792,14 +8875,14 @@
         <v>61</v>
       </c>
       <c r="W105">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X105">
         <v>2</v>
       </c>
       <c r="Y105">
-        <f ca="1">YEAR(TODAY())-B105</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8849,14 +8932,14 @@
       <c r="Q106">
         <v>40</v>
       </c>
-      <c r="R106" s="9">
+      <c r="R106">
         <v>19</v>
       </c>
-      <c r="S106" s="8">
-        <f t="shared" si="5"/>
+      <c r="S106">
+        <f t="shared" si="9"/>
         <v>8.5585585585585586E-2</v>
       </c>
-      <c r="T106" s="9">
+      <c r="T106">
         <v>1195</v>
       </c>
       <c r="U106">
@@ -8866,14 +8949,14 @@
         <v>74.400000000000006</v>
       </c>
       <c r="W106">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>9</v>
       </c>
       <c r="X106">
         <v>9</v>
       </c>
       <c r="Y106">
-        <f ca="1">YEAR(TODAY())-B106</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8920,14 +9003,14 @@
       <c r="Q107">
         <v>40</v>
       </c>
-      <c r="R107" s="9">
+      <c r="R107">
         <v>21</v>
       </c>
-      <c r="S107" s="8">
-        <f t="shared" si="5"/>
+      <c r="S107">
+        <f t="shared" si="9"/>
         <v>8.2677165354330714E-2</v>
       </c>
-      <c r="T107" s="9">
+      <c r="T107">
         <v>1560</v>
       </c>
       <c r="U107">
@@ -8937,14 +9020,14 @@
         <v>87.2</v>
       </c>
       <c r="W107">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>8</v>
       </c>
       <c r="X107">
         <v>8</v>
       </c>
       <c r="Y107">
-        <f ca="1">YEAR(TODAY())-B107</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -8991,14 +9074,14 @@
       <c r="Q108">
         <v>40</v>
       </c>
-      <c r="R108" s="9">
+      <c r="R108">
         <v>10</v>
       </c>
-      <c r="S108" s="8">
-        <f t="shared" si="5"/>
+      <c r="S108">
+        <f t="shared" si="9"/>
         <v>0.10309278350515463</v>
       </c>
-      <c r="T108" s="9">
+      <c r="T108">
         <v>562</v>
       </c>
       <c r="U108">
@@ -9008,14 +9091,14 @@
         <v>52.7</v>
       </c>
       <c r="W108">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X108">
         <v>2</v>
       </c>
       <c r="Y108">
-        <f ca="1">YEAR(TODAY())-B108</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9068,14 +9151,14 @@
       <c r="Q109">
         <v>4</v>
       </c>
-      <c r="R109" s="9">
+      <c r="R109">
         <v>6</v>
       </c>
-      <c r="S109" s="8">
-        <f t="shared" si="5"/>
+      <c r="S109">
+        <f t="shared" si="9"/>
         <v>5.1724137931034482E-2</v>
       </c>
-      <c r="T109" s="9">
+      <c r="T109">
         <v>819</v>
       </c>
       <c r="U109">
@@ -9085,14 +9168,14 @@
         <v>63.3</v>
       </c>
       <c r="W109">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="X109">
         <v>6</v>
       </c>
       <c r="Y109">
-        <f ca="1">YEAR(TODAY())-B109</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9139,14 +9222,14 @@
       <c r="Q110">
         <v>6</v>
       </c>
-      <c r="R110" s="9">
+      <c r="R110">
         <v>5</v>
       </c>
-      <c r="S110" s="8">
-        <f t="shared" si="5"/>
+      <c r="S110">
+        <f t="shared" si="9"/>
         <v>4.3859649122807015E-2</v>
       </c>
-      <c r="T110" s="9">
+      <c r="T110">
         <v>451</v>
       </c>
       <c r="U110">
@@ -9156,14 +9239,14 @@
         <v>55.5</v>
       </c>
       <c r="W110">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X110">
         <v>2</v>
       </c>
       <c r="Y110">
-        <f ca="1">YEAR(TODAY())-B110</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9210,14 +9293,14 @@
       <c r="Q111">
         <v>40</v>
       </c>
-      <c r="R111" s="9">
+      <c r="R111">
         <v>10</v>
       </c>
-      <c r="S111" s="8">
-        <f t="shared" si="5"/>
+      <c r="S111">
+        <f t="shared" si="9"/>
         <v>8.2644628099173556E-2</v>
       </c>
-      <c r="T111" s="9">
+      <c r="T111">
         <v>804</v>
       </c>
       <c r="U111">
@@ -9227,14 +9310,14 @@
         <v>65.2</v>
       </c>
       <c r="W111">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>3</v>
       </c>
       <c r="X111">
         <v>3</v>
       </c>
       <c r="Y111">
-        <f ca="1">YEAR(TODAY())-B111</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9278,14 +9361,14 @@
       <c r="Q112">
         <v>7</v>
       </c>
-      <c r="R112" s="9">
+      <c r="R112">
         <v>8</v>
       </c>
-      <c r="S112" s="8">
-        <f t="shared" si="5"/>
+      <c r="S112">
+        <f t="shared" si="9"/>
         <v>5.1948051948051951E-2</v>
       </c>
-      <c r="T112" s="9">
+      <c r="T112">
         <v>836</v>
       </c>
       <c r="U112">
@@ -9295,14 +9378,14 @@
         <v>51.1</v>
       </c>
       <c r="W112">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>1</v>
       </c>
       <c r="X112">
         <v>1</v>
       </c>
       <c r="Y112">
-        <f ca="1">YEAR(TODAY())-B112</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9349,14 +9432,14 @@
       <c r="Q113">
         <v>40</v>
       </c>
-      <c r="R113" s="9">
+      <c r="R113">
         <v>15</v>
       </c>
-      <c r="S113" s="8">
-        <f t="shared" si="5"/>
+      <c r="S113">
+        <f t="shared" si="9"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="T113" s="9">
+      <c r="T113">
         <v>432</v>
       </c>
       <c r="U113">
@@ -9366,14 +9449,14 @@
         <v>79.099999999999994</v>
       </c>
       <c r="W113">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="X113">
         <v>6</v>
       </c>
       <c r="Y113">
-        <f ca="1">YEAR(TODAY())-B113</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9426,14 +9509,14 @@
       <c r="Q114">
         <v>40</v>
       </c>
-      <c r="R114" s="9">
+      <c r="R114">
         <v>12</v>
       </c>
-      <c r="S114" s="8">
-        <f t="shared" si="5"/>
+      <c r="S114">
+        <f t="shared" si="9"/>
         <v>8.2191780821917804E-2</v>
       </c>
-      <c r="T114" s="9">
+      <c r="T114">
         <v>635</v>
       </c>
       <c r="U114">
@@ -9443,14 +9526,14 @@
         <v>68.3</v>
       </c>
       <c r="W114">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>6</v>
       </c>
       <c r="X114">
         <v>6</v>
       </c>
       <c r="Y114">
-        <f ca="1">YEAR(TODAY())-B114</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9500,14 +9583,14 @@
       <c r="Q115">
         <v>40</v>
       </c>
-      <c r="R115" s="9">
+      <c r="R115">
         <v>8</v>
       </c>
-      <c r="S115" s="8">
-        <f t="shared" si="5"/>
+      <c r="S115">
+        <f t="shared" si="9"/>
         <v>4.4444444444444446E-2</v>
       </c>
-      <c r="T115" s="9">
+      <c r="T115">
         <v>1109</v>
       </c>
       <c r="U115">
@@ -9517,14 +9600,14 @@
         <v>74.400000000000006</v>
       </c>
       <c r="W115">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>4</v>
       </c>
       <c r="X115">
         <v>4</v>
       </c>
       <c r="Y115">
-        <f ca="1">YEAR(TODAY())-B115</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9582,7 +9665,7 @@
         <v>10</v>
       </c>
       <c r="S116" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5.181347150259067E-2</v>
       </c>
       <c r="T116" s="7">
@@ -9595,14 +9678,14 @@
         <v>73.5</v>
       </c>
       <c r="W116" s="7">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>2</v>
       </c>
       <c r="X116" s="7">
         <v>2</v>
       </c>
       <c r="Y116" s="7">
-        <f ca="1">YEAR(TODAY())-B116</f>
+        <f t="shared" ca="1" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -9655,28 +9738,28 @@
       <c r="Q117">
         <v>40</v>
       </c>
-      <c r="R117" s="9">
+      <c r="R117">
         <v>9</v>
       </c>
-      <c r="S117" s="8">
-        <f t="shared" si="5"/>
+      <c r="S117">
+        <f t="shared" si="9"/>
         <v>7.7586206896551727E-2</v>
       </c>
-      <c r="T117" s="9">
+      <c r="T117">
         <v>740</v>
       </c>
       <c r="U117">
         <v>5</v>
       </c>
       <c r="W117">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>11</v>
       </c>
       <c r="X117">
         <v>33</v>
       </c>
       <c r="Y117">
-        <f ca="1">YEAR(TODAY())-B117</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -9720,28 +9803,28 @@
       <c r="Q118">
         <v>1</v>
       </c>
-      <c r="R118" s="9">
+      <c r="R118">
         <v>7</v>
       </c>
-      <c r="S118" s="8">
-        <f t="shared" si="5"/>
+      <c r="S118">
+        <f t="shared" si="9"/>
         <v>6.1946902654867256E-2</v>
       </c>
-      <c r="T118" s="9">
+      <c r="T118">
         <v>1042</v>
       </c>
       <c r="U118">
         <v>6</v>
       </c>
       <c r="W118">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="X118">
         <v>28</v>
       </c>
       <c r="Y118">
-        <f ca="1">YEAR(TODAY())-B118</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -9788,28 +9871,28 @@
       <c r="Q119">
         <v>1</v>
       </c>
-      <c r="R119" s="9">
+      <c r="R119">
         <v>9</v>
       </c>
-      <c r="S119" s="8">
-        <f t="shared" si="5"/>
+      <c r="S119">
+        <f t="shared" si="9"/>
         <v>3.6885245901639344E-2</v>
       </c>
-      <c r="T119" s="9">
+      <c r="T119">
         <v>2052</v>
       </c>
       <c r="U119">
         <v>10</v>
       </c>
       <c r="W119">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="7"/>
         <v>10.666666666666666</v>
       </c>
       <c r="X119">
         <v>32</v>
       </c>
       <c r="Y119">
-        <f ca="1">YEAR(TODAY())-B119</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -9865,28 +9948,28 @@
       <c r="Q120">
         <v>13</v>
       </c>
-      <c r="R120" s="9">
+      <c r="R120">
         <v>3</v>
       </c>
-      <c r="S120" s="8">
-        <f t="shared" si="5"/>
+      <c r="S120">
+        <f t="shared" si="9"/>
         <v>2.4390243902439025E-2</v>
       </c>
-      <c r="T120" s="9">
+      <c r="T120">
         <v>1020</v>
       </c>
       <c r="U120">
         <v>20</v>
       </c>
       <c r="W120">
-        <f t="shared" ref="W120:W137" ca="1" si="6">X120/Y120</f>
+        <f t="shared" ref="W120:W137" ca="1" si="11">X120/Y120</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="X120">
         <v>7</v>
       </c>
       <c r="Y120">
-        <f ca="1">YEAR(TODAY())-B120</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -9933,28 +10016,28 @@
       <c r="Q121">
         <v>40</v>
       </c>
-      <c r="R121" s="9">
+      <c r="R121">
         <v>19</v>
       </c>
-      <c r="S121" s="8">
-        <f t="shared" si="5"/>
+      <c r="S121">
+        <f t="shared" si="9"/>
         <v>0.1144578313253012</v>
       </c>
-      <c r="T121" s="9">
+      <c r="T121">
         <v>905</v>
       </c>
       <c r="U121">
         <v>27</v>
       </c>
       <c r="W121">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>3.6666666666666665</v>
       </c>
       <c r="X121">
         <v>11</v>
       </c>
       <c r="Y121">
-        <f ca="1">YEAR(TODAY())-B121</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10010,28 +10093,28 @@
       <c r="Q122">
         <v>40</v>
       </c>
-      <c r="R122" s="9">
+      <c r="R122">
         <v>10</v>
       </c>
-      <c r="S122" s="8">
-        <f t="shared" si="5"/>
+      <c r="S122">
+        <f t="shared" si="9"/>
         <v>5.0251256281407038E-2</v>
       </c>
-      <c r="T122" s="9">
+      <c r="T122">
         <v>1041</v>
       </c>
       <c r="U122">
         <v>34</v>
       </c>
       <c r="W122">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4</v>
       </c>
       <c r="X122">
         <v>12</v>
       </c>
       <c r="Y122">
-        <f ca="1">YEAR(TODAY())-B122</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10081,28 +10164,28 @@
       <c r="Q123">
         <v>40</v>
       </c>
-      <c r="R123" s="9">
+      <c r="R123">
         <v>10</v>
       </c>
-      <c r="S123" s="8">
-        <f t="shared" si="5"/>
+      <c r="S123">
+        <f t="shared" si="9"/>
         <v>5.3191489361702128E-2</v>
       </c>
-      <c r="T123" s="9">
+      <c r="T123">
         <v>1343</v>
       </c>
       <c r="U123">
         <v>49</v>
       </c>
       <c r="W123">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4</v>
       </c>
       <c r="X123">
         <v>12</v>
       </c>
       <c r="Y123">
-        <f ca="1">YEAR(TODAY())-B123</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10155,28 +10238,28 @@
       <c r="Q124">
         <v>40</v>
       </c>
-      <c r="R124" s="9">
+      <c r="R124">
         <v>16</v>
       </c>
-      <c r="S124" s="8">
-        <f t="shared" si="5"/>
+      <c r="S124">
+        <f t="shared" si="9"/>
         <v>0.11594202898550725</v>
       </c>
-      <c r="T124" s="9">
+      <c r="T124">
         <v>1148</v>
       </c>
       <c r="U124">
         <v>56</v>
       </c>
       <c r="W124">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="X124">
         <v>2</v>
       </c>
       <c r="Y124">
-        <f ca="1">YEAR(TODAY())-B124</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10229,28 +10312,28 @@
       <c r="Q125">
         <v>40</v>
       </c>
-      <c r="R125" s="9">
+      <c r="R125">
         <v>11</v>
       </c>
-      <c r="S125" s="8">
+      <c r="S125">
         <f>R125/(F125+R125)</f>
         <v>7.2847682119205295E-2</v>
       </c>
-      <c r="T125" s="9">
+      <c r="T125">
         <v>1201</v>
       </c>
       <c r="U125">
         <v>57</v>
       </c>
       <c r="W125">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2.6666666666666665</v>
       </c>
       <c r="X125">
         <v>8</v>
       </c>
       <c r="Y125">
-        <f ca="1">YEAR(TODAY())-B125</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10300,28 +10383,28 @@
       <c r="Q126">
         <v>40</v>
       </c>
-      <c r="R126" s="9">
+      <c r="R126">
         <v>11</v>
       </c>
-      <c r="S126" s="8">
-        <f t="shared" si="5"/>
+      <c r="S126">
+        <f t="shared" si="9"/>
         <v>9.4017094017094016E-2</v>
       </c>
-      <c r="T126" s="9">
+      <c r="T126">
         <v>541</v>
       </c>
       <c r="U126">
         <v>59</v>
       </c>
       <c r="W126">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>2</v>
       </c>
       <c r="X126">
         <v>6</v>
       </c>
       <c r="Y126">
-        <f ca="1">YEAR(TODAY())-B126</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10374,28 +10457,28 @@
       <c r="Q127">
         <v>40</v>
       </c>
-      <c r="R127" s="9">
+      <c r="R127">
         <v>9</v>
       </c>
-      <c r="S127" s="8">
-        <f t="shared" si="5"/>
+      <c r="S127">
+        <f t="shared" si="9"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="T127" s="9">
+      <c r="T127">
         <v>255</v>
       </c>
       <c r="U127">
         <v>77</v>
       </c>
       <c r="W127">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>4.333333333333333</v>
       </c>
       <c r="X127">
         <v>13</v>
       </c>
       <c r="Y127">
-        <f ca="1">YEAR(TODAY())-B127</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10451,28 +10534,28 @@
       <c r="Q128">
         <v>18</v>
       </c>
-      <c r="R128" s="9">
+      <c r="R128">
         <v>13</v>
       </c>
-      <c r="S128" s="8">
-        <f t="shared" si="5"/>
+      <c r="S128">
+        <f t="shared" si="9"/>
         <v>9.5588235294117641E-2</v>
       </c>
-      <c r="T128" s="9">
+      <c r="T128">
         <v>650</v>
       </c>
       <c r="U128">
         <v>82</v>
       </c>
       <c r="W128">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="X128">
         <v>3</v>
       </c>
       <c r="Y128">
-        <f ca="1">YEAR(TODAY())-B128</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10528,28 +10611,28 @@
       <c r="Q129">
         <v>3</v>
       </c>
-      <c r="R129" s="9">
+      <c r="R129">
         <v>10</v>
       </c>
-      <c r="S129" s="8">
-        <f t="shared" si="5"/>
+      <c r="S129">
+        <f t="shared" si="9"/>
         <v>5.2356020942408377E-2</v>
       </c>
-      <c r="T129" s="9">
+      <c r="T129">
         <v>1432</v>
       </c>
       <c r="U129">
         <v>85</v>
       </c>
       <c r="W129">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="X129">
         <v>2</v>
       </c>
       <c r="Y129">
-        <f ca="1">YEAR(TODAY())-B129</f>
+        <f t="shared" ca="1" si="10"/>
         <v>3</v>
       </c>
     </row>
@@ -10605,28 +10688,28 @@
       <c r="Q130">
         <v>40</v>
       </c>
-      <c r="R130" s="9">
+      <c r="R130">
         <v>5</v>
       </c>
-      <c r="S130" s="8">
-        <f t="shared" si="5"/>
+      <c r="S130">
+        <f t="shared" si="9"/>
         <v>6.0240963855421686E-2</v>
       </c>
-      <c r="T130" s="9">
+      <c r="T130">
         <v>379</v>
       </c>
       <c r="U130">
         <v>89</v>
       </c>
       <c r="W130">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>6</v>
       </c>
       <c r="X130">
         <v>18</v>
       </c>
       <c r="Y130">
-        <f ca="1">YEAR(TODAY())-B130</f>
+        <f t="shared" ref="Y130:Y141" ca="1" si="12">YEAR(TODAY())-B130</f>
         <v>3</v>
       </c>
     </row>
@@ -10679,28 +10762,28 @@
       <c r="Q131">
         <v>40</v>
       </c>
-      <c r="R131" s="9">
+      <c r="R131">
         <v>13</v>
       </c>
-      <c r="S131" s="8">
-        <f t="shared" si="5"/>
+      <c r="S131">
+        <f t="shared" si="9"/>
         <v>0.1</v>
       </c>
-      <c r="T131" s="9">
+      <c r="T131">
         <v>1011</v>
       </c>
       <c r="U131">
         <v>91</v>
       </c>
       <c r="W131">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="X131">
         <v>2</v>
       </c>
       <c r="Y131">
-        <f ca="1">YEAR(TODAY())-B131</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -10750,28 +10833,28 @@
       <c r="Q132">
         <v>40</v>
       </c>
-      <c r="R132" s="9">
+      <c r="R132">
         <v>22</v>
       </c>
-      <c r="S132" s="8">
-        <f t="shared" si="5"/>
+      <c r="S132">
+        <f t="shared" si="9"/>
         <v>0.125</v>
       </c>
-      <c r="T132" s="9">
+      <c r="T132">
         <v>879</v>
       </c>
       <c r="U132">
         <v>109</v>
       </c>
       <c r="W132">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="X132">
         <v>0</v>
       </c>
       <c r="Y132">
-        <f ca="1">YEAR(TODAY())-B132</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -10827,28 +10910,28 @@
       <c r="Q133">
         <v>21</v>
       </c>
-      <c r="R133" s="9">
+      <c r="R133">
         <v>13</v>
       </c>
-      <c r="S133" s="8">
-        <f t="shared" si="5"/>
+      <c r="S133">
+        <f t="shared" si="9"/>
         <v>6.8062827225130892E-2</v>
       </c>
-      <c r="T133" s="9">
+      <c r="T133">
         <v>802</v>
       </c>
       <c r="U133">
         <v>112</v>
       </c>
       <c r="W133">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>11.666666666666666</v>
       </c>
       <c r="X133">
         <v>35</v>
       </c>
       <c r="Y133">
-        <f ca="1">YEAR(TODAY())-B133</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -10901,28 +10984,28 @@
       <c r="Q134">
         <v>40</v>
       </c>
-      <c r="R134" s="9">
+      <c r="R134">
         <v>19</v>
       </c>
-      <c r="S134" s="8">
-        <f t="shared" si="5"/>
+      <c r="S134">
+        <f t="shared" si="9"/>
         <v>7.6305220883534142E-2</v>
       </c>
-      <c r="T134" s="9">
+      <c r="T134">
         <v>1552</v>
       </c>
       <c r="U134">
         <v>129</v>
       </c>
       <c r="W134">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0</v>
       </c>
       <c r="X134">
         <v>0</v>
       </c>
       <c r="Y134">
-        <f ca="1">YEAR(TODAY())-B134</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -10978,28 +11061,28 @@
       <c r="Q135">
         <v>20</v>
       </c>
-      <c r="R135" s="9">
+      <c r="R135">
         <v>17</v>
       </c>
-      <c r="S135" s="8">
-        <f t="shared" si="5"/>
+      <c r="S135">
+        <f t="shared" si="9"/>
         <v>7.6576576576576572E-2</v>
       </c>
-      <c r="T135" s="9">
+      <c r="T135">
         <v>1149</v>
       </c>
       <c r="U135">
         <v>131</v>
       </c>
       <c r="W135">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="X135">
         <v>1</v>
       </c>
       <c r="Y135">
-        <f ca="1">YEAR(TODAY())-B135</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -11052,28 +11135,28 @@
       <c r="Q136">
         <v>16</v>
       </c>
-      <c r="R136" s="9">
+      <c r="R136">
         <v>19</v>
       </c>
-      <c r="S136" s="8">
-        <f t="shared" si="5"/>
+      <c r="S136">
+        <f t="shared" si="9"/>
         <v>0.14728682170542637</v>
       </c>
-      <c r="T136" s="9">
+      <c r="T136">
         <v>485</v>
       </c>
       <c r="U136">
         <v>157</v>
       </c>
       <c r="W136">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1</v>
       </c>
       <c r="X136">
         <v>3</v>
       </c>
       <c r="Y136">
-        <f ca="1">YEAR(TODAY())-B136</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -11126,28 +11209,28 @@
       <c r="Q137">
         <v>40</v>
       </c>
-      <c r="R137" s="9">
+      <c r="R137">
         <v>12</v>
       </c>
-      <c r="S137" s="8">
-        <f t="shared" si="5"/>
+      <c r="S137">
+        <f t="shared" si="9"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="T137" s="9">
+      <c r="T137">
         <v>1060</v>
       </c>
       <c r="U137">
         <v>204</v>
       </c>
       <c r="W137">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="11"/>
         <v>1.3333333333333333</v>
       </c>
       <c r="X137">
         <v>4</v>
       </c>
       <c r="Y137">
-        <f ca="1">YEAR(TODAY())-B137</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -11203,28 +11286,28 @@
       <c r="Q138">
         <v>18</v>
       </c>
-      <c r="R138" s="9">
+      <c r="R138">
         <v>20</v>
       </c>
-      <c r="S138" s="8">
-        <f t="shared" si="5"/>
+      <c r="S138">
+        <f t="shared" si="9"/>
         <v>9.6153846153846159E-2</v>
       </c>
-      <c r="T138" s="9">
+      <c r="T138">
         <v>1260</v>
       </c>
       <c r="U138">
         <v>221</v>
       </c>
       <c r="W138">
-        <f t="shared" ref="W138:W140" ca="1" si="7">X138/Y138</f>
+        <f t="shared" ref="W138:W140" ca="1" si="13">X138/Y138</f>
         <v>0</v>
       </c>
       <c r="X138">
         <v>0</v>
       </c>
       <c r="Y138">
-        <f ca="1">YEAR(TODAY())-B138</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
@@ -11265,104 +11348,1969 @@
       <c r="Q139">
         <v>5</v>
       </c>
-      <c r="R139" s="9">
+      <c r="R139">
         <v>15</v>
       </c>
-      <c r="S139" s="8">
-        <f t="shared" si="5"/>
+      <c r="S139">
+        <f t="shared" si="9"/>
         <v>9.7402597402597407E-2</v>
       </c>
-      <c r="T139" s="9">
+      <c r="T139">
         <v>482</v>
       </c>
       <c r="U139">
         <v>249</v>
       </c>
       <c r="W139">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="13"/>
         <v>2</v>
       </c>
       <c r="X139">
         <v>6</v>
       </c>
       <c r="Y139">
-        <f ca="1">YEAR(TODAY())-B139</f>
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="4">
         <v>2021</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="4">
         <v>22</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E140">
+      <c r="E140" s="4">
         <v>190</v>
       </c>
-      <c r="F140">
+      <c r="F140" s="4">
         <v>101</v>
       </c>
-      <c r="G140">
+      <c r="G140" s="4">
         <v>1542</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="4">
         <v>15.3</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="4">
         <v>11</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="4">
         <v>33</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="4">
         <v>4.54</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="4">
         <v>31</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="4">
         <v>14</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="4">
         <v>114</v>
       </c>
-      <c r="P140">
+      <c r="O140" s="4"/>
+      <c r="P140" s="4">
         <v>4.1900000000000004</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="4">
         <v>11</v>
       </c>
-      <c r="R140" s="9">
+      <c r="R140" s="4">
         <v>6</v>
       </c>
-      <c r="S140" s="8">
-        <f t="shared" si="5"/>
+      <c r="S140" s="4">
+        <f t="shared" si="9"/>
         <v>5.6074766355140186E-2</v>
       </c>
-      <c r="T140" s="9">
+      <c r="T140" s="4">
         <v>440</v>
       </c>
-      <c r="U140">
+      <c r="U140" s="4">
         <v>258</v>
       </c>
-      <c r="W140">
-        <f t="shared" ca="1" si="7"/>
+      <c r="V140" s="4"/>
+      <c r="W140" s="4">
+        <f t="shared" ca="1" si="13"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="X140">
+      <c r="X140" s="4">
         <v>1</v>
       </c>
-      <c r="Y140">
-        <f ca="1">YEAR(TODAY())-B140</f>
+      <c r="Y140" s="4">
+        <f t="shared" ca="1" si="12"/>
         <v>3</v>
       </c>
+    </row>
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C141" s="8">
+        <v>21</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="E141" s="8">
+        <v>210</v>
+      </c>
+      <c r="F141" s="8">
+        <v>160</v>
+      </c>
+      <c r="G141" s="8">
+        <v>2153</v>
+      </c>
+      <c r="H141">
+        <f>G141/F141</f>
+        <v>13.456250000000001</v>
+      </c>
+      <c r="I141" s="8">
+        <v>15</v>
+      </c>
+      <c r="J141" s="8">
+        <v>27</v>
+      </c>
+      <c r="Q141" s="8">
+        <v>40</v>
+      </c>
+      <c r="R141" s="8">
+        <v>10</v>
+      </c>
+      <c r="S141">
+        <f t="shared" si="9"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="T141" s="8">
+        <v>886</v>
+      </c>
+      <c r="U141" s="8">
+        <v>8</v>
+      </c>
+      <c r="W141">
+        <f ca="1">X141/Y141</f>
+        <v>8</v>
+      </c>
+      <c r="X141" s="8">
+        <v>16</v>
+      </c>
+      <c r="Y141" s="8">
+        <f t="shared" ca="1" si="12"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C142" s="8">
+        <v>22</v>
+      </c>
+      <c r="D142" t="s">
+        <v>160</v>
+      </c>
+      <c r="E142" s="8">
+        <v>188</v>
+      </c>
+      <c r="F142" s="8">
+        <v>143</v>
+      </c>
+      <c r="G142" s="8">
+        <v>2213</v>
+      </c>
+      <c r="H142">
+        <f t="shared" ref="H142:H167" si="14">G142/F142</f>
+        <v>15.475524475524475</v>
+      </c>
+      <c r="I142" s="8">
+        <v>23</v>
+      </c>
+      <c r="J142" s="8">
+        <v>33</v>
+      </c>
+      <c r="K142" s="8">
+        <v>4.38</v>
+      </c>
+      <c r="L142" s="8">
+        <v>36</v>
+      </c>
+      <c r="N142">
+        <v>123</v>
+      </c>
+      <c r="P142">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="Q142" s="8">
+        <v>6</v>
+      </c>
+      <c r="R142" s="8">
+        <v>11</v>
+      </c>
+      <c r="S142">
+        <f t="shared" si="9"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="T142" s="8">
+        <v>739</v>
+      </c>
+      <c r="U142" s="8">
+        <v>10</v>
+      </c>
+      <c r="W142">
+        <f ca="1">X142/Y142</f>
+        <v>7.5</v>
+      </c>
+      <c r="X142" s="8">
+        <v>15</v>
+      </c>
+      <c r="Y142" s="8">
+        <f ca="1">YEAR(TODAY())-B142</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C143" s="8">
+        <v>22</v>
+      </c>
+      <c r="D143" t="s">
+        <v>165</v>
+      </c>
+      <c r="E143" s="8">
+        <v>189</v>
+      </c>
+      <c r="F143" s="8">
+        <v>176</v>
+      </c>
+      <c r="G143" s="8">
+        <v>2711</v>
+      </c>
+      <c r="H143">
+        <f t="shared" si="14"/>
+        <v>15.403409090909092</v>
+      </c>
+      <c r="I143" s="8">
+        <v>35</v>
+      </c>
+      <c r="J143" s="8">
+        <v>40</v>
+      </c>
+      <c r="K143" s="8">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="L143" s="8">
+        <v>32</v>
+      </c>
+      <c r="N143">
+        <v>124</v>
+      </c>
+      <c r="Q143" s="8">
+        <v>6</v>
+      </c>
+      <c r="R143" s="8">
+        <v>9</v>
+      </c>
+      <c r="S143">
+        <f t="shared" si="9"/>
+        <v>4.8648648648648651E-2</v>
+      </c>
+      <c r="T143" s="8">
+        <v>654</v>
+      </c>
+      <c r="U143" s="8">
+        <v>11</v>
+      </c>
+      <c r="W143">
+        <f t="shared" ref="W143:W167" ca="1" si="15">X143/Y143</f>
+        <v>9</v>
+      </c>
+      <c r="X143" s="8">
+        <v>18</v>
+      </c>
+      <c r="Y143" s="8">
+        <f t="shared" ref="Y143:Y166" ca="1" si="16">YEAR(TODAY())-B143</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C144" s="8">
+        <v>21</v>
+      </c>
+      <c r="D144" t="s">
+        <v>168</v>
+      </c>
+      <c r="E144" s="8">
+        <v>189</v>
+      </c>
+      <c r="F144" s="8">
+        <v>94</v>
+      </c>
+      <c r="G144" s="8">
+        <v>1838</v>
+      </c>
+      <c r="H144">
+        <f t="shared" si="14"/>
+        <v>19.553191489361701</v>
+      </c>
+      <c r="I144" s="8">
+        <v>18</v>
+      </c>
+      <c r="J144" s="8">
+        <v>34</v>
+      </c>
+      <c r="Q144" s="8">
+        <v>2</v>
+      </c>
+      <c r="R144" s="8">
+        <v>8</v>
+      </c>
+      <c r="S144">
+        <f t="shared" si="9"/>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="T144" s="8">
+        <v>793</v>
+      </c>
+      <c r="U144" s="8">
+        <v>12</v>
+      </c>
+      <c r="W144">
+        <f t="shared" ca="1" si="15"/>
+        <v>2.5</v>
+      </c>
+      <c r="X144" s="8">
+        <v>5</v>
+      </c>
+      <c r="Y144" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C145" s="8">
+        <v>22</v>
+      </c>
+      <c r="D145" t="s">
+        <v>166</v>
+      </c>
+      <c r="E145" s="8">
+        <v>184</v>
+      </c>
+      <c r="F145" s="8">
+        <v>183</v>
+      </c>
+      <c r="G145" s="8">
+        <v>2757</v>
+      </c>
+      <c r="H145">
+        <f t="shared" si="14"/>
+        <v>15.065573770491802</v>
+      </c>
+      <c r="I145" s="8">
+        <v>25</v>
+      </c>
+      <c r="J145" s="8">
+        <v>42</v>
+      </c>
+      <c r="K145" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="L145" s="8">
+        <v>36</v>
+      </c>
+      <c r="N145">
+        <v>121</v>
+      </c>
+      <c r="O145">
+        <v>7.28</v>
+      </c>
+      <c r="Q145" s="8">
+        <v>40</v>
+      </c>
+      <c r="R145" s="8">
+        <v>10</v>
+      </c>
+      <c r="S145">
+        <f t="shared" si="9"/>
+        <v>5.181347150259067E-2</v>
+      </c>
+      <c r="T145" s="8">
+        <v>1104</v>
+      </c>
+      <c r="U145" s="8">
+        <v>16</v>
+      </c>
+      <c r="W145">
+        <f t="shared" ca="1" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="X145" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y145" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C146" s="8">
+        <v>22</v>
+      </c>
+      <c r="D146" t="s">
+        <v>168</v>
+      </c>
+      <c r="E146" s="8">
+        <v>225</v>
+      </c>
+      <c r="F146" s="8">
+        <v>146</v>
+      </c>
+      <c r="G146" s="8">
+        <v>2399</v>
+      </c>
+      <c r="H146">
+        <f t="shared" si="14"/>
+        <v>16.431506849315067</v>
+      </c>
+      <c r="I146" s="8">
+        <v>18</v>
+      </c>
+      <c r="J146" s="8">
+        <v>32</v>
+      </c>
+      <c r="K146" s="8">
+        <v>4.55</v>
+      </c>
+      <c r="L146" s="8">
+        <v>33</v>
+      </c>
+      <c r="N146">
+        <v>122</v>
+      </c>
+      <c r="O146">
+        <v>7.28</v>
+      </c>
+      <c r="Q146" s="8">
+        <v>21</v>
+      </c>
+      <c r="R146" s="8">
+        <v>12</v>
+      </c>
+      <c r="S146">
+        <f t="shared" si="9"/>
+        <v>7.5949367088607597E-2</v>
+      </c>
+      <c r="T146" s="8">
+        <v>1098</v>
+      </c>
+      <c r="U146" s="8">
+        <v>18</v>
+      </c>
+      <c r="W146">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="X146" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y146" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B147" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C147" s="8">
+        <v>23</v>
+      </c>
+      <c r="D147" t="s">
+        <v>201</v>
+      </c>
+      <c r="E147" s="8">
+        <v>208</v>
+      </c>
+      <c r="F147" s="8">
+        <v>104</v>
+      </c>
+      <c r="G147" s="8">
+        <v>2140</v>
+      </c>
+      <c r="H147">
+        <f t="shared" si="14"/>
+        <v>20.576923076923077</v>
+      </c>
+      <c r="I147" s="8">
+        <v>14</v>
+      </c>
+      <c r="J147" s="8">
+        <v>52</v>
+      </c>
+      <c r="K147" s="8">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="L147" s="8">
+        <v>38.5</v>
+      </c>
+      <c r="N147">
+        <v>136</v>
+      </c>
+      <c r="Q147" s="8">
+        <v>40</v>
+      </c>
+      <c r="R147" s="8">
+        <v>15</v>
+      </c>
+      <c r="S147">
+        <f t="shared" si="9"/>
+        <v>0.12605042016806722</v>
+      </c>
+      <c r="T147" s="8">
+        <v>881</v>
+      </c>
+      <c r="U147" s="8">
+        <v>34</v>
+      </c>
+      <c r="W147">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.5</v>
+      </c>
+      <c r="X147" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y147" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B148" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C148" s="8">
+        <v>21</v>
+      </c>
+      <c r="D148" t="s">
+        <v>166</v>
+      </c>
+      <c r="E148" s="8">
+        <v>185</v>
+      </c>
+      <c r="F148" s="8">
+        <v>195</v>
+      </c>
+      <c r="G148" s="8">
+        <v>2248</v>
+      </c>
+      <c r="H148">
+        <f t="shared" si="14"/>
+        <v>11.528205128205128</v>
+      </c>
+      <c r="I148" s="8">
+        <v>10</v>
+      </c>
+      <c r="J148" s="8">
+        <v>31</v>
+      </c>
+      <c r="K148" s="8">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="L148" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="N148">
+        <v>118</v>
+      </c>
+      <c r="Q148" s="8">
+        <v>18</v>
+      </c>
+      <c r="R148" s="8">
+        <v>11</v>
+      </c>
+      <c r="S148">
+        <f t="shared" si="9"/>
+        <v>5.3398058252427182E-2</v>
+      </c>
+      <c r="T148" s="8">
+        <v>1258</v>
+      </c>
+      <c r="U148" s="8">
+        <v>43</v>
+      </c>
+      <c r="W148">
+        <f t="shared" ca="1" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="X148" s="8">
+        <v>6</v>
+      </c>
+      <c r="Y148" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B149" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C149" s="8">
+        <v>22</v>
+      </c>
+      <c r="D149" t="s">
+        <v>160</v>
+      </c>
+      <c r="E149" s="8">
+        <v>195</v>
+      </c>
+      <c r="F149" s="8">
+        <v>155</v>
+      </c>
+      <c r="G149" s="8">
+        <v>2081</v>
+      </c>
+      <c r="H149">
+        <f t="shared" si="14"/>
+        <v>13.425806451612903</v>
+      </c>
+      <c r="I149" s="8">
+        <v>14</v>
+      </c>
+      <c r="J149" s="8">
+        <v>38</v>
+      </c>
+      <c r="Q149" s="8">
+        <v>2</v>
+      </c>
+      <c r="R149" s="8">
+        <v>15</v>
+      </c>
+      <c r="S149">
+        <f t="shared" si="9"/>
+        <v>8.8235294117647065E-2</v>
+      </c>
+      <c r="T149" s="8">
+        <v>1017</v>
+      </c>
+      <c r="U149" s="8">
+        <v>44</v>
+      </c>
+      <c r="W149">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="X149" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y149" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B150" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C150" s="8">
+        <v>22</v>
+      </c>
+      <c r="D150" t="s">
+        <v>169</v>
+      </c>
+      <c r="E150" s="8">
+        <v>182</v>
+      </c>
+      <c r="F150" s="8">
+        <v>143</v>
+      </c>
+      <c r="G150" s="8">
+        <v>2242</v>
+      </c>
+      <c r="H150">
+        <f t="shared" si="14"/>
+        <v>15.678321678321678</v>
+      </c>
+      <c r="I150" s="8">
+        <v>19</v>
+      </c>
+      <c r="J150" s="8">
+        <v>44</v>
+      </c>
+      <c r="K150" s="8">
+        <v>4.28</v>
+      </c>
+      <c r="L150" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="N150">
+        <v>130</v>
+      </c>
+      <c r="Q150" s="8">
+        <v>5</v>
+      </c>
+      <c r="R150" s="8">
+        <v>9</v>
+      </c>
+      <c r="S150">
+        <f t="shared" si="9"/>
+        <v>5.921052631578947E-2</v>
+      </c>
+      <c r="T150" s="8">
+        <v>558</v>
+      </c>
+      <c r="U150" s="8">
+        <v>50</v>
+      </c>
+      <c r="W150">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="X150" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y150" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A151" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B151" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C151" s="8">
+        <v>21</v>
+      </c>
+      <c r="D151" t="s">
+        <v>169</v>
+      </c>
+      <c r="E151" s="8">
+        <v>200</v>
+      </c>
+      <c r="F151" s="8">
+        <v>90</v>
+      </c>
+      <c r="G151" s="8">
+        <v>1347</v>
+      </c>
+      <c r="H151">
+        <f t="shared" si="14"/>
+        <v>14.966666666666667</v>
+      </c>
+      <c r="I151" s="8">
+        <v>14</v>
+      </c>
+      <c r="J151" s="8">
+        <v>26</v>
+      </c>
+      <c r="K151" s="8">
+        <v>4.47</v>
+      </c>
+      <c r="L151" s="8">
+        <v>33</v>
+      </c>
+      <c r="N151">
+        <v>125</v>
+      </c>
+      <c r="Q151" s="8">
+        <v>1</v>
+      </c>
+      <c r="R151" s="8">
+        <v>2</v>
+      </c>
+      <c r="S151">
+        <f t="shared" si="9"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
+      <c r="T151" s="8">
+        <v>314</v>
+      </c>
+      <c r="U151" s="8">
+        <v>52</v>
+      </c>
+      <c r="W151">
+        <f t="shared" ca="1" si="15"/>
+        <v>8.5</v>
+      </c>
+      <c r="X151" s="8">
+        <v>17</v>
+      </c>
+      <c r="Y151" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A152" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B152" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C152" s="8">
+        <v>22</v>
+      </c>
+      <c r="D152" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="8">
+        <v>213</v>
+      </c>
+      <c r="F152" s="8">
+        <v>106</v>
+      </c>
+      <c r="G152" s="8">
+        <v>1851</v>
+      </c>
+      <c r="H152">
+        <f t="shared" si="14"/>
+        <v>17.462264150943398</v>
+      </c>
+      <c r="I152" s="8">
+        <v>12</v>
+      </c>
+      <c r="J152" s="8">
+        <v>38</v>
+      </c>
+      <c r="K152" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="L152" s="8">
+        <v>40.5</v>
+      </c>
+      <c r="N152">
+        <v>129</v>
+      </c>
+      <c r="O152">
+        <v>7.13</v>
+      </c>
+      <c r="P152">
+        <v>4.28</v>
+      </c>
+      <c r="Q152" s="8">
+        <v>4</v>
+      </c>
+      <c r="R152" s="8">
+        <v>8</v>
+      </c>
+      <c r="S152">
+        <f t="shared" si="9"/>
+        <v>7.0175438596491224E-2</v>
+      </c>
+      <c r="T152" s="8">
+        <v>409</v>
+      </c>
+      <c r="U152" s="8">
+        <v>53</v>
+      </c>
+      <c r="W152">
+        <f t="shared" ca="1" si="15"/>
+        <v>4.5</v>
+      </c>
+      <c r="X152" s="8">
+        <v>9</v>
+      </c>
+      <c r="Y152" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A153" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B153" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C153" s="8">
+        <v>21</v>
+      </c>
+      <c r="D153" t="s">
+        <v>167</v>
+      </c>
+      <c r="E153" s="8">
+        <v>195</v>
+      </c>
+      <c r="F153" s="8">
+        <v>171</v>
+      </c>
+      <c r="G153" s="8">
+        <v>2482</v>
+      </c>
+      <c r="H153">
+        <f t="shared" si="14"/>
+        <v>14.514619883040936</v>
+      </c>
+      <c r="I153" s="8">
+        <v>16</v>
+      </c>
+      <c r="J153" s="8">
+        <v>30</v>
+      </c>
+      <c r="K153" s="8">
+        <v>4.41</v>
+      </c>
+      <c r="L153" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="N153">
+        <v>125</v>
+      </c>
+      <c r="O153">
+        <v>7.13</v>
+      </c>
+      <c r="P153">
+        <v>4.32</v>
+      </c>
+      <c r="Q153" s="8">
+        <v>40</v>
+      </c>
+      <c r="R153" s="8">
+        <v>6</v>
+      </c>
+      <c r="S153">
+        <f t="shared" si="9"/>
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="T153" s="8">
+        <v>1089</v>
+      </c>
+      <c r="U153" s="8">
+        <v>54</v>
+      </c>
+      <c r="W153">
+        <f t="shared" ca="1" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="X153" s="8">
+        <v>4</v>
+      </c>
+      <c r="Y153" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A154" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B154" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C154" s="8">
+        <v>25</v>
+      </c>
+      <c r="D154" t="s">
+        <v>160</v>
+      </c>
+      <c r="E154" s="8">
+        <v>200</v>
+      </c>
+      <c r="F154" s="8">
+        <v>122</v>
+      </c>
+      <c r="G154" s="8">
+        <v>2973</v>
+      </c>
+      <c r="H154">
+        <f t="shared" si="14"/>
+        <v>24.368852459016395</v>
+      </c>
+      <c r="I154" s="8">
+        <v>2</v>
+      </c>
+      <c r="J154" s="8">
+        <v>60</v>
+      </c>
+      <c r="K154" s="8">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="L154" s="8">
+        <v>33</v>
+      </c>
+      <c r="N154">
+        <v>121</v>
+      </c>
+      <c r="Q154" s="8">
+        <v>40</v>
+      </c>
+      <c r="R154" s="8">
+        <v>9</v>
+      </c>
+      <c r="S154">
+        <f t="shared" si="9"/>
+        <v>6.8702290076335881E-2</v>
+      </c>
+      <c r="T154" s="8">
+        <v>903</v>
+      </c>
+      <c r="U154" s="8">
+        <v>71</v>
+      </c>
+      <c r="W154">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="X154" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y154" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A155" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B155" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C155" s="8">
+        <v>23</v>
+      </c>
+      <c r="D155" t="s">
+        <v>169</v>
+      </c>
+      <c r="E155" s="8">
+        <v>190</v>
+      </c>
+      <c r="F155" s="8">
+        <v>178</v>
+      </c>
+      <c r="G155" s="8">
+        <v>3140</v>
+      </c>
+      <c r="H155">
+        <f t="shared" si="14"/>
+        <v>17.640449438202246</v>
+      </c>
+      <c r="I155" s="8">
+        <v>22</v>
+      </c>
+      <c r="J155" s="8">
+        <v>40</v>
+      </c>
+      <c r="K155" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="L155" s="8">
+        <v>36</v>
+      </c>
+      <c r="N155">
+        <v>123</v>
+      </c>
+      <c r="O155">
+        <v>7.08</v>
+      </c>
+      <c r="Q155" s="8">
+        <v>40</v>
+      </c>
+      <c r="R155" s="8">
+        <v>18</v>
+      </c>
+      <c r="S155">
+        <f t="shared" si="9"/>
+        <v>9.1836734693877556E-2</v>
+      </c>
+      <c r="T155" s="8">
+        <v>1059</v>
+      </c>
+      <c r="U155" s="8">
+        <v>88</v>
+      </c>
+      <c r="W155">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="X155" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y155" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A156" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B156" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C156" s="8">
+        <v>21</v>
+      </c>
+      <c r="D156" t="s">
+        <v>168</v>
+      </c>
+      <c r="E156" s="8">
+        <v>205</v>
+      </c>
+      <c r="F156" s="8">
+        <v>232</v>
+      </c>
+      <c r="G156" s="8">
+        <v>2946</v>
+      </c>
+      <c r="H156">
+        <f t="shared" si="14"/>
+        <v>12.698275862068966</v>
+      </c>
+      <c r="I156" s="8">
+        <v>21</v>
+      </c>
+      <c r="J156" s="8">
+        <v>29</v>
+      </c>
+      <c r="K156" s="8">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="L156" s="8">
+        <v>33</v>
+      </c>
+      <c r="N156">
+        <v>118</v>
+      </c>
+      <c r="O156">
+        <v>7.14</v>
+      </c>
+      <c r="P156">
+        <v>4.57</v>
+      </c>
+      <c r="Q156" s="8">
+        <v>40</v>
+      </c>
+      <c r="R156" s="8">
+        <v>11</v>
+      </c>
+      <c r="S156">
+        <f>R156/(F156+R156)</f>
+        <v>4.5267489711934158E-2</v>
+      </c>
+      <c r="T156" s="8">
+        <v>1095</v>
+      </c>
+      <c r="U156" s="8">
+        <v>99</v>
+      </c>
+      <c r="W156">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="X156" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y156" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B157" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C157" s="8">
+        <v>23</v>
+      </c>
+      <c r="D157" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="8">
+        <v>180</v>
+      </c>
+      <c r="F157" s="8">
+        <v>82</v>
+      </c>
+      <c r="G157" s="8">
+        <v>1251</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="14"/>
+        <v>15.25609756097561</v>
+      </c>
+      <c r="I157" s="8">
+        <v>13</v>
+      </c>
+      <c r="J157" s="8">
+        <v>19</v>
+      </c>
+      <c r="K157" s="8">
+        <v>4.33</v>
+      </c>
+      <c r="L157" s="8">
+        <v>34</v>
+      </c>
+      <c r="N157">
+        <v>126</v>
+      </c>
+      <c r="Q157" s="8">
+        <v>40</v>
+      </c>
+      <c r="R157" s="8">
+        <v>10</v>
+      </c>
+      <c r="S157">
+        <f t="shared" si="9"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="T157" s="8">
+        <v>738</v>
+      </c>
+      <c r="U157" s="8">
+        <v>105</v>
+      </c>
+      <c r="W157">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X157" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y157" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A158" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B158" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C158" s="8">
+        <v>22</v>
+      </c>
+      <c r="D158" t="s">
+        <v>169</v>
+      </c>
+      <c r="E158" s="8">
+        <v>220</v>
+      </c>
+      <c r="F158" s="8">
+        <v>138</v>
+      </c>
+      <c r="G158" s="8">
+        <v>2166</v>
+      </c>
+      <c r="H158">
+        <f>G158/F158</f>
+        <v>15.695652173913043</v>
+      </c>
+      <c r="I158" s="8">
+        <v>15</v>
+      </c>
+      <c r="J158" s="8">
+        <v>35</v>
+      </c>
+      <c r="L158" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="N158">
+        <v>126</v>
+      </c>
+      <c r="P158">
+        <v>4.38</v>
+      </c>
+      <c r="Q158" s="8">
+        <v>40</v>
+      </c>
+      <c r="R158" s="8">
+        <v>12</v>
+      </c>
+      <c r="S158">
+        <f t="shared" ref="S158:S167" si="17">R158/(F158+R158)</f>
+        <v>0.08</v>
+      </c>
+      <c r="T158" s="8">
+        <v>880</v>
+      </c>
+      <c r="U158" s="8">
+        <v>125</v>
+      </c>
+      <c r="W158">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X158" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y158" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A159" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B159" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C159">
+        <v>22</v>
+      </c>
+      <c r="D159" t="s">
+        <v>168</v>
+      </c>
+      <c r="E159" s="8">
+        <v>200</v>
+      </c>
+      <c r="F159" s="8">
+        <v>225</v>
+      </c>
+      <c r="G159" s="8">
+        <v>3322</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="14"/>
+        <v>14.764444444444445</v>
+      </c>
+      <c r="I159" s="8">
+        <v>26</v>
+      </c>
+      <c r="J159" s="8">
+        <v>44</v>
+      </c>
+      <c r="Q159" s="8">
+        <v>40</v>
+      </c>
+      <c r="R159" s="8">
+        <v>14</v>
+      </c>
+      <c r="S159">
+        <f t="shared" si="17"/>
+        <v>5.8577405857740586E-2</v>
+      </c>
+      <c r="T159" s="8">
+        <v>1320</v>
+      </c>
+      <c r="U159" s="8">
+        <v>132</v>
+      </c>
+      <c r="W159">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.5</v>
+      </c>
+      <c r="X159" s="8">
+        <v>11</v>
+      </c>
+      <c r="Y159" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A160" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B160" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C160">
+        <v>23</v>
+      </c>
+      <c r="D160" t="s">
+        <v>163</v>
+      </c>
+      <c r="E160" s="8">
+        <v>162</v>
+      </c>
+      <c r="F160" s="8">
+        <v>156</v>
+      </c>
+      <c r="G160" s="8">
+        <v>2541</v>
+      </c>
+      <c r="H160">
+        <f t="shared" si="14"/>
+        <v>16.28846153846154</v>
+      </c>
+      <c r="I160" s="8">
+        <v>22</v>
+      </c>
+      <c r="J160" s="8">
+        <v>40</v>
+      </c>
+      <c r="K160" s="8">
+        <v>4.32</v>
+      </c>
+      <c r="L160" s="8">
+        <v>39</v>
+      </c>
+      <c r="N160">
+        <v>135</v>
+      </c>
+      <c r="O160">
+        <v>6.65</v>
+      </c>
+      <c r="P160">
+        <v>4.07</v>
+      </c>
+      <c r="Q160" s="8">
+        <v>40</v>
+      </c>
+      <c r="R160" s="8">
+        <v>16</v>
+      </c>
+      <c r="S160">
+        <f t="shared" si="17"/>
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="T160" s="8">
+        <v>950</v>
+      </c>
+      <c r="U160" s="8">
+        <v>138</v>
+      </c>
+      <c r="W160">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X160" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y160" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A161" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B161" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C161">
+        <v>22</v>
+      </c>
+      <c r="D161" t="s">
+        <v>160</v>
+      </c>
+      <c r="E161" s="8">
+        <v>190</v>
+      </c>
+      <c r="F161" s="8">
+        <v>208</v>
+      </c>
+      <c r="G161" s="8">
+        <v>2878</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="14"/>
+        <v>13.836538461538462</v>
+      </c>
+      <c r="I161" s="8">
+        <v>20</v>
+      </c>
+      <c r="J161" s="8">
+        <v>43</v>
+      </c>
+      <c r="K161" s="8">
+        <v>4.43</v>
+      </c>
+      <c r="L161" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="N161">
+        <v>124</v>
+      </c>
+      <c r="O161">
+        <v>7.28</v>
+      </c>
+      <c r="P161">
+        <v>4.21</v>
+      </c>
+      <c r="Q161" s="8">
+        <v>40</v>
+      </c>
+      <c r="R161" s="8">
+        <v>20</v>
+      </c>
+      <c r="S161">
+        <f t="shared" si="17"/>
+        <v>8.771929824561403E-2</v>
+      </c>
+      <c r="T161" s="8">
+        <v>1270</v>
+      </c>
+      <c r="U161" s="8">
+        <v>148</v>
+      </c>
+      <c r="W161">
+        <f ca="1">X161/Y161</f>
+        <v>4</v>
+      </c>
+      <c r="X161" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y161" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A162" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="B162" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C162">
+        <v>23</v>
+      </c>
+      <c r="D162" t="s">
+        <v>167</v>
+      </c>
+      <c r="E162" s="8">
+        <v>170</v>
+      </c>
+      <c r="F162" s="8">
+        <v>87</v>
+      </c>
+      <c r="G162" s="8">
+        <v>1233</v>
+      </c>
+      <c r="H162">
+        <f t="shared" si="14"/>
+        <v>14.172413793103448</v>
+      </c>
+      <c r="I162" s="8">
+        <v>13</v>
+      </c>
+      <c r="J162" s="8">
+        <v>18</v>
+      </c>
+      <c r="Q162" s="8">
+        <v>40</v>
+      </c>
+      <c r="R162" s="8">
+        <v>10</v>
+      </c>
+      <c r="S162">
+        <f t="shared" si="17"/>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="T162" s="8">
+        <v>536</v>
+      </c>
+      <c r="U162" s="8">
+        <v>162</v>
+      </c>
+      <c r="W162">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X162" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y162" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A163" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B163" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C163">
+        <v>23</v>
+      </c>
+      <c r="D163" t="s">
+        <v>166</v>
+      </c>
+      <c r="E163" s="8">
+        <v>177</v>
+      </c>
+      <c r="F163" s="8">
+        <v>163</v>
+      </c>
+      <c r="G163" s="8">
+        <v>1821</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="14"/>
+        <v>11.171779141104295</v>
+      </c>
+      <c r="I163" s="8">
+        <v>17</v>
+      </c>
+      <c r="J163" s="8">
+        <v>34</v>
+      </c>
+      <c r="K163" s="8">
+        <v>4.58</v>
+      </c>
+      <c r="L163" s="8">
+        <v>33.5</v>
+      </c>
+      <c r="N163">
+        <v>124</v>
+      </c>
+      <c r="Q163" s="8">
+        <v>40</v>
+      </c>
+      <c r="R163" s="8">
+        <v>13</v>
+      </c>
+      <c r="S163">
+        <f t="shared" si="17"/>
+        <v>7.3863636363636367E-2</v>
+      </c>
+      <c r="T163" s="8">
+        <v>819</v>
+      </c>
+      <c r="U163" s="8">
+        <v>163</v>
+      </c>
+      <c r="W163">
+        <f t="shared" ca="1" si="15"/>
+        <v>1.5</v>
+      </c>
+      <c r="X163" s="8">
+        <v>3</v>
+      </c>
+      <c r="Y163" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A164" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B164" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C164">
+        <v>23</v>
+      </c>
+      <c r="D164" t="s">
+        <v>160</v>
+      </c>
+      <c r="E164" s="8">
+        <v>190</v>
+      </c>
+      <c r="F164" s="8">
+        <v>86</v>
+      </c>
+      <c r="G164" s="8">
+        <v>1454</v>
+      </c>
+      <c r="H164">
+        <f t="shared" si="14"/>
+        <v>16.906976744186046</v>
+      </c>
+      <c r="I164" s="8">
+        <v>12</v>
+      </c>
+      <c r="J164" s="8">
+        <v>26</v>
+      </c>
+      <c r="K164" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="L164" s="8">
+        <v>38</v>
+      </c>
+      <c r="N164">
+        <v>128</v>
+      </c>
+      <c r="O164">
+        <v>7.03</v>
+      </c>
+      <c r="P164">
+        <v>4.28</v>
+      </c>
+      <c r="Q164" s="8">
+        <v>9</v>
+      </c>
+      <c r="R164" s="8">
+        <v>9</v>
+      </c>
+      <c r="S164">
+        <f t="shared" si="17"/>
+        <v>9.4736842105263161E-2</v>
+      </c>
+      <c r="T164" s="8">
+        <v>706</v>
+      </c>
+      <c r="U164" s="8">
+        <v>191</v>
+      </c>
+      <c r="W164">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.5</v>
+      </c>
+      <c r="X164" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y164" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A165" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B165" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C165">
+        <v>22</v>
+      </c>
+      <c r="D165" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="8">
+        <v>190</v>
+      </c>
+      <c r="F165" s="8">
+        <v>118</v>
+      </c>
+      <c r="G165" s="8">
+        <v>1648</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="14"/>
+        <v>13.966101694915254</v>
+      </c>
+      <c r="I165" s="8">
+        <v>12</v>
+      </c>
+      <c r="J165" s="8">
+        <v>43</v>
+      </c>
+      <c r="K165" s="8">
+        <v>4.55</v>
+      </c>
+      <c r="L165" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="N165">
+        <v>125</v>
+      </c>
+      <c r="Q165" s="8">
+        <v>10</v>
+      </c>
+      <c r="R165" s="8">
+        <v>15</v>
+      </c>
+      <c r="S165">
+        <f t="shared" si="17"/>
+        <v>0.11278195488721804</v>
+      </c>
+      <c r="T165" s="8">
+        <v>550</v>
+      </c>
+      <c r="U165" s="8">
+        <v>202</v>
+      </c>
+      <c r="W165">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X165" s="8">
+        <v>0</v>
+      </c>
+      <c r="Y165" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A166" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B166" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C166">
+        <v>23</v>
+      </c>
+      <c r="D166" t="s">
+        <v>166</v>
+      </c>
+      <c r="E166" s="8">
+        <v>195</v>
+      </c>
+      <c r="F166" s="8">
+        <v>164</v>
+      </c>
+      <c r="G166" s="8">
+        <v>2011</v>
+      </c>
+      <c r="H166">
+        <f t="shared" si="14"/>
+        <v>12.262195121951219</v>
+      </c>
+      <c r="I166" s="8">
+        <v>11</v>
+      </c>
+      <c r="J166" s="8">
+        <v>46</v>
+      </c>
+      <c r="K166" s="8">
+        <v>4.34</v>
+      </c>
+      <c r="L166" s="8">
+        <v>38</v>
+      </c>
+      <c r="N166">
+        <v>121</v>
+      </c>
+      <c r="O166">
+        <v>6.98</v>
+      </c>
+      <c r="Q166" s="8">
+        <v>40</v>
+      </c>
+      <c r="R166" s="8">
+        <v>17</v>
+      </c>
+      <c r="S166">
+        <f t="shared" si="17"/>
+        <v>9.3922651933701654E-2</v>
+      </c>
+      <c r="T166" s="8">
+        <v>909</v>
+      </c>
+      <c r="U166" s="8">
+        <v>229</v>
+      </c>
+      <c r="W166">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X166" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y166" s="8">
+        <f t="shared" ca="1" si="16"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A167" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="8">
+        <v>2022</v>
+      </c>
+      <c r="C167">
+        <v>24</v>
+      </c>
+      <c r="D167" t="s">
+        <v>169</v>
+      </c>
+      <c r="E167">
+        <v>193</v>
+      </c>
+      <c r="F167">
+        <v>46</v>
+      </c>
+      <c r="G167">
+        <v>898</v>
+      </c>
+      <c r="H167">
+        <f t="shared" si="14"/>
+        <v>19.521739130434781</v>
+      </c>
+      <c r="I167">
+        <v>5</v>
+      </c>
+      <c r="J167">
+        <v>12</v>
+      </c>
+      <c r="Q167" s="8">
+        <v>40</v>
+      </c>
+      <c r="R167" s="8">
+        <v>11</v>
+      </c>
+      <c r="S167">
+        <f t="shared" si="17"/>
+        <v>0.19298245614035087</v>
+      </c>
+      <c r="T167" s="8">
+        <v>1068</v>
+      </c>
+      <c r="U167">
+        <v>258</v>
+      </c>
+      <c r="W167">
+        <f t="shared" ca="1" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="X167" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y167" s="8">
+        <f ca="1">YEAR(TODAY())-B167</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="B168" s="8"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Y116">
